--- a/utilities/AutoSave/data/npcs.xlsx
+++ b/utilities/AutoSave/data/npcs.xlsx
@@ -271,7 +271,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,8 +287,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,6 +344,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -362,10 +374,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -430,8 +443,12 @@
     <xf numFmtId="3" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -717,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -817,10 +834,10 @@
         <v>20</v>
       </c>
       <c r="J2" s="13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K2" s="13">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L2" s="13">
         <v>1</v>
@@ -828,8 +845,8 @@
       <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1">
-        <v>1.1000000000000001</v>
+      <c r="O2" s="22">
+        <v>1.2</v>
       </c>
       <c r="P2" s="1">
         <v>1.25</v>
@@ -866,19 +883,19 @@
       </c>
       <c r="H3" s="13">
         <f>H2*O3</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" s="13">
         <f>I2*O3</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J3" s="13">
-        <f>J2+1</f>
-        <v>2</v>
+        <f>J2*O3</f>
+        <v>7.1999999999999993</v>
       </c>
       <c r="K3" s="13">
-        <f>K2+1</f>
-        <v>3</v>
+        <f>K2*O3</f>
+        <v>15.6</v>
       </c>
       <c r="L3" s="13">
         <f>L2+1</f>
@@ -889,7 +906,7 @@
       </c>
       <c r="O3" s="1">
         <f t="shared" ref="O3:P5" si="0">O2</f>
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="0"/>
@@ -928,30 +945,30 @@
       </c>
       <c r="H4" s="13">
         <f>H3*O4</f>
-        <v>12.100000000000001</v>
+        <v>14.399999999999999</v>
       </c>
       <c r="I4" s="13">
         <f>I3*O4</f>
-        <v>24.200000000000003</v>
+        <v>28.799999999999997</v>
       </c>
       <c r="J4" s="13">
         <f>J3*O4</f>
-        <v>2.2000000000000002</v>
+        <v>8.6399999999999988</v>
       </c>
       <c r="K4" s="13">
         <f>K3*O4</f>
-        <v>3.3000000000000003</v>
+        <v>18.72</v>
       </c>
       <c r="L4" s="13">
         <f>L3*O4</f>
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="0"/>
@@ -990,30 +1007,30 @@
       </c>
       <c r="H5" s="13">
         <f t="shared" ref="H5:H31" si="4">H4*O5</f>
-        <v>13.310000000000002</v>
+        <v>17.279999999999998</v>
       </c>
       <c r="I5" s="13">
         <f t="shared" ref="I5:I31" si="5">I4*O5</f>
-        <v>26.620000000000005</v>
+        <v>34.559999999999995</v>
       </c>
       <c r="J5" s="13">
         <f>J4*O5</f>
-        <v>2.4200000000000004</v>
+        <v>10.367999999999999</v>
       </c>
       <c r="K5" s="13">
         <f>K4*O5</f>
-        <v>3.6300000000000008</v>
+        <v>22.463999999999999</v>
       </c>
       <c r="L5" s="13">
         <f>L4*O5</f>
-        <v>2.4200000000000004</v>
+        <v>2.88</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="0"/>
@@ -1052,30 +1069,30 @@
       </c>
       <c r="H6" s="13">
         <f t="shared" si="4"/>
-        <v>14.641000000000004</v>
+        <v>20.735999999999997</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" si="5"/>
-        <v>29.282000000000007</v>
+        <v>41.471999999999994</v>
       </c>
       <c r="J6" s="13">
         <f>J5*O6</f>
-        <v>2.6620000000000008</v>
+        <v>12.441599999999998</v>
       </c>
       <c r="K6" s="13">
         <f t="shared" ref="K6:K31" si="7">K5*O6</f>
-        <v>3.9930000000000012</v>
+        <v>26.956799999999998</v>
       </c>
       <c r="L6" s="13">
         <f>L5*O6</f>
-        <v>2.6620000000000008</v>
+        <v>3.456</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" ref="O6:O61" si="8">O5</f>
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" ref="P6:P61" si="9">P5</f>
@@ -1114,30 +1131,30 @@
       </c>
       <c r="H7" s="13">
         <f t="shared" si="4"/>
-        <v>16.105100000000004</v>
+        <v>24.883199999999995</v>
       </c>
       <c r="I7" s="13">
         <f t="shared" si="5"/>
-        <v>32.210200000000007</v>
+        <v>49.76639999999999</v>
       </c>
       <c r="J7" s="13">
         <f t="shared" ref="J7:J31" si="11">J6*O7</f>
-        <v>2.9282000000000012</v>
+        <v>14.929919999999996</v>
       </c>
       <c r="K7" s="13">
         <f t="shared" si="7"/>
-        <v>4.3923000000000014</v>
+        <v>32.348159999999993</v>
       </c>
       <c r="L7" s="13">
         <f t="shared" ref="L7:L31" si="12">L6*O7</f>
-        <v>2.9282000000000012</v>
+        <v>4.1471999999999998</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P7" s="1">
         <v>1.2</v>
@@ -1175,30 +1192,30 @@
       </c>
       <c r="H8" s="13">
         <f t="shared" si="4"/>
-        <v>17.715610000000005</v>
+        <v>29.859839999999991</v>
       </c>
       <c r="I8" s="13">
         <f t="shared" si="5"/>
-        <v>35.43122000000001</v>
+        <v>59.719679999999983</v>
       </c>
       <c r="J8" s="13">
         <f t="shared" si="11"/>
-        <v>3.2210200000000015</v>
+        <v>17.915903999999994</v>
       </c>
       <c r="K8" s="13">
         <f t="shared" si="7"/>
-        <v>4.8315300000000017</v>
+        <v>38.81779199999999</v>
       </c>
       <c r="L8" s="13">
         <f t="shared" si="12"/>
-        <v>3.2210200000000015</v>
+        <v>4.9766399999999997</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="9"/>
@@ -1237,30 +1254,30 @@
       </c>
       <c r="H9" s="13">
         <f t="shared" si="4"/>
-        <v>19.487171000000007</v>
+        <v>35.831807999999988</v>
       </c>
       <c r="I9" s="13">
         <f t="shared" si="5"/>
-        <v>38.974342000000014</v>
+        <v>71.663615999999976</v>
       </c>
       <c r="J9" s="13">
         <f t="shared" si="11"/>
-        <v>3.5431220000000021</v>
+        <v>21.499084799999991</v>
       </c>
       <c r="K9" s="13">
         <f t="shared" si="7"/>
-        <v>5.3146830000000023</v>
+        <v>46.581350399999984</v>
       </c>
       <c r="L9" s="13">
         <f t="shared" si="12"/>
-        <v>3.5431220000000021</v>
+        <v>5.9719679999999995</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" si="9"/>
@@ -1299,30 +1316,30 @@
       </c>
       <c r="H10" s="13">
         <f t="shared" si="4"/>
-        <v>21.43588810000001</v>
+        <v>42.998169599999983</v>
       </c>
       <c r="I10" s="13">
         <f t="shared" si="5"/>
-        <v>42.871776200000021</v>
+        <v>85.996339199999966</v>
       </c>
       <c r="J10" s="13">
         <f t="shared" si="11"/>
-        <v>3.8974342000000028</v>
+        <v>25.798901759999989</v>
       </c>
       <c r="K10" s="13">
         <f t="shared" si="7"/>
-        <v>5.8461513000000034</v>
+        <v>55.897620479999979</v>
       </c>
       <c r="L10" s="13">
         <f t="shared" si="12"/>
-        <v>3.8974342000000028</v>
+        <v>7.1663615999999992</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" si="9"/>
@@ -1361,30 +1378,30 @@
       </c>
       <c r="H11" s="13">
         <f t="shared" si="4"/>
-        <v>23.579476910000015</v>
+        <v>51.597803519999978</v>
       </c>
       <c r="I11" s="13">
         <f t="shared" si="5"/>
-        <v>47.158953820000029</v>
+        <v>103.19560703999996</v>
       </c>
       <c r="J11" s="13">
         <f t="shared" si="11"/>
-        <v>4.2871776200000031</v>
+        <v>30.958682111999984</v>
       </c>
       <c r="K11" s="13">
         <f t="shared" si="7"/>
-        <v>6.4307664300000038</v>
+        <v>67.077144575999966</v>
       </c>
       <c r="L11" s="13">
         <f t="shared" si="12"/>
-        <v>4.2871776200000031</v>
+        <v>8.5996339199999987</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="9"/>
@@ -1423,30 +1440,29 @@
       </c>
       <c r="H12" s="20">
         <f t="shared" si="4"/>
-        <v>25.937424601000018</v>
+        <v>59.337474047999969</v>
       </c>
       <c r="I12" s="20">
         <f t="shared" si="5"/>
-        <v>51.874849202000036</v>
+        <v>118.67494809599994</v>
       </c>
       <c r="J12" s="20">
         <f t="shared" si="11"/>
-        <v>4.7158953820000038</v>
+        <v>35.602484428799976</v>
       </c>
       <c r="K12" s="20">
         <f t="shared" si="7"/>
-        <v>7.0738430730000044</v>
+        <v>77.138716262399953</v>
       </c>
       <c r="L12" s="20">
         <f t="shared" si="12"/>
-        <v>4.7158953820000038</v>
+        <v>9.8895790079999983</v>
       </c>
       <c r="M12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+      <c r="O12" s="22">
+        <v>1.1499999999999999</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="9"/>
@@ -1485,30 +1501,30 @@
       </c>
       <c r="H13" s="20">
         <f t="shared" si="4"/>
-        <v>28.531167061100021</v>
+        <v>68.238095155199957</v>
       </c>
       <c r="I13" s="20">
         <f t="shared" si="5"/>
-        <v>57.062334122200042</v>
+        <v>136.47619031039991</v>
       </c>
       <c r="J13" s="20">
         <f t="shared" si="11"/>
-        <v>5.1874849202000046</v>
+        <v>40.942857093119969</v>
       </c>
       <c r="K13" s="20">
         <f t="shared" si="7"/>
-        <v>7.7812273803000052</v>
+        <v>88.709523701759935</v>
       </c>
       <c r="L13" s="20">
         <f t="shared" si="12"/>
-        <v>5.1874849202000046</v>
+        <v>11.373015859199997</v>
       </c>
       <c r="M13" s="19" t="s">
         <v>17</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="9"/>
@@ -1547,30 +1563,30 @@
       </c>
       <c r="H14" s="20">
         <f t="shared" si="4"/>
-        <v>31.384283767210025</v>
+        <v>78.473809428479939</v>
       </c>
       <c r="I14" s="20">
         <f t="shared" si="5"/>
-        <v>62.76856753442005</v>
+        <v>156.94761885695988</v>
       </c>
       <c r="J14" s="20">
         <f t="shared" si="11"/>
-        <v>5.7062334122200058</v>
+        <v>47.08428565708796</v>
       </c>
       <c r="K14" s="20">
         <f t="shared" si="7"/>
-        <v>8.5593501183300056</v>
+        <v>102.01595225702391</v>
       </c>
       <c r="L14" s="20">
         <f t="shared" si="12"/>
-        <v>5.7062334122200058</v>
+        <v>13.078968238079996</v>
       </c>
       <c r="M14" s="19" t="s">
         <v>17</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="9"/>
@@ -1609,30 +1625,30 @@
       </c>
       <c r="H15" s="20">
         <f t="shared" si="4"/>
-        <v>34.522712143931031</v>
+        <v>90.244880842751925</v>
       </c>
       <c r="I15" s="20">
         <f t="shared" si="5"/>
-        <v>69.045424287862062</v>
+        <v>180.48976168550385</v>
       </c>
       <c r="J15" s="20">
         <f t="shared" si="11"/>
-        <v>6.276856753442007</v>
+        <v>54.146928505651154</v>
       </c>
       <c r="K15" s="20">
         <f t="shared" si="7"/>
-        <v>9.4152851301630065</v>
+        <v>117.31834509557748</v>
       </c>
       <c r="L15" s="20">
         <f t="shared" si="12"/>
-        <v>6.276856753442007</v>
+        <v>15.040813473791994</v>
       </c>
       <c r="M15" s="19" t="s">
         <v>17</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" si="9"/>
@@ -1671,30 +1687,30 @@
       </c>
       <c r="H16" s="20">
         <f t="shared" si="4"/>
-        <v>37.974983358324138</v>
+        <v>103.78161296916471</v>
       </c>
       <c r="I16" s="20">
         <f t="shared" si="5"/>
-        <v>75.949966716648277</v>
+        <v>207.56322593832942</v>
       </c>
       <c r="J16" s="20">
         <f t="shared" si="11"/>
-        <v>6.9045424287862085</v>
+        <v>62.268967781498823</v>
       </c>
       <c r="K16" s="20">
         <f t="shared" si="7"/>
-        <v>10.356813643179308</v>
+        <v>134.91609685991409</v>
       </c>
       <c r="L16" s="20">
         <f t="shared" si="12"/>
-        <v>6.9045424287862085</v>
+        <v>17.29693549486079</v>
       </c>
       <c r="M16" s="19" t="s">
         <v>17</v>
       </c>
       <c r="O16" s="1">
         <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="P16" s="1">
         <f t="shared" si="9"/>
@@ -1733,30 +1749,30 @@
       </c>
       <c r="H17" s="20">
         <f t="shared" si="4"/>
-        <v>41.772481694156554</v>
+        <v>119.34885491453942</v>
       </c>
       <c r="I17" s="20">
         <f t="shared" si="5"/>
-        <v>83.544963388313107</v>
+        <v>238.69770982907883</v>
       </c>
       <c r="J17" s="20">
         <f t="shared" si="11"/>
-        <v>7.5949966716648296</v>
+        <v>71.609312948723641</v>
       </c>
       <c r="K17" s="20">
         <f t="shared" si="7"/>
-        <v>11.39249500749724</v>
+        <v>155.15351138890119</v>
       </c>
       <c r="L17" s="20">
         <f t="shared" si="12"/>
-        <v>7.5949966716648296</v>
+        <v>19.891475819089909</v>
       </c>
       <c r="M17" s="19" t="s">
         <v>17</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" si="9"/>
@@ -1795,30 +1811,30 @@
       </c>
       <c r="H18" s="20">
         <f t="shared" si="4"/>
-        <v>45.949729863572216</v>
+        <v>137.25118315172031</v>
       </c>
       <c r="I18" s="20">
         <f t="shared" si="5"/>
-        <v>91.899459727144432</v>
+        <v>274.50236630344062</v>
       </c>
       <c r="J18" s="20">
         <f t="shared" si="11"/>
-        <v>8.3544963388313125</v>
+        <v>82.350709891032182</v>
       </c>
       <c r="K18" s="20">
         <f t="shared" si="7"/>
-        <v>12.531744508246966</v>
+        <v>178.42653809723635</v>
       </c>
       <c r="L18" s="20">
         <f t="shared" si="12"/>
-        <v>8.3544963388313125</v>
+        <v>22.875197191953394</v>
       </c>
       <c r="M18" s="19" t="s">
         <v>17</v>
       </c>
       <c r="O18" s="1">
         <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" si="9"/>
@@ -1857,30 +1873,30 @@
       </c>
       <c r="H19" s="20">
         <f t="shared" si="4"/>
-        <v>50.544702849929443</v>
+        <v>157.83886062447834</v>
       </c>
       <c r="I19" s="20">
         <f t="shared" si="5"/>
-        <v>101.08940569985889</v>
+        <v>315.67772124895669</v>
       </c>
       <c r="J19" s="20">
         <f t="shared" si="11"/>
-        <v>9.1899459727144439</v>
+        <v>94.703316374687006</v>
       </c>
       <c r="K19" s="20">
         <f t="shared" si="7"/>
-        <v>13.784918959071664</v>
+        <v>205.19051881182179</v>
       </c>
       <c r="L19" s="20">
         <f t="shared" si="12"/>
-        <v>9.1899459727144439</v>
+        <v>26.3064767707464</v>
       </c>
       <c r="M19" s="19" t="s">
         <v>17</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" si="9"/>
@@ -1919,30 +1935,30 @@
       </c>
       <c r="H20" s="20">
         <f t="shared" si="4"/>
-        <v>55.599173134922395</v>
+        <v>181.51468971815009</v>
       </c>
       <c r="I20" s="20">
         <f t="shared" si="5"/>
-        <v>111.19834626984479</v>
+        <v>363.02937943630019</v>
       </c>
       <c r="J20" s="20">
         <f t="shared" si="11"/>
-        <v>10.108940569985888</v>
+        <v>108.90881383089005</v>
       </c>
       <c r="K20" s="20">
         <f t="shared" si="7"/>
-        <v>15.163410854978832</v>
+        <v>235.96909663359503</v>
       </c>
       <c r="L20" s="20">
         <f t="shared" si="12"/>
-        <v>10.108940569985888</v>
+        <v>30.252448286358359</v>
       </c>
       <c r="M20" s="19" t="s">
         <v>17</v>
       </c>
       <c r="O20" s="1">
         <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="P20" s="1">
         <f t="shared" si="9"/>
@@ -1981,30 +1997,30 @@
       </c>
       <c r="H21" s="20">
         <f t="shared" si="4"/>
-        <v>61.159090448414638</v>
+        <v>208.7418931758726</v>
       </c>
       <c r="I21" s="20">
         <f t="shared" si="5"/>
-        <v>122.31818089682928</v>
+        <v>417.48378635174521</v>
       </c>
       <c r="J21" s="20">
         <f t="shared" si="11"/>
-        <v>11.119834626984478</v>
+        <v>125.24513590552355</v>
       </c>
       <c r="K21" s="20">
         <f t="shared" si="7"/>
-        <v>16.679751940476716</v>
+        <v>271.36446112863428</v>
       </c>
       <c r="L21" s="20">
         <f t="shared" si="12"/>
-        <v>11.119834626984478</v>
+        <v>34.79031552931211</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>17</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" si="9"/>
@@ -2043,29 +2059,28 @@
       </c>
       <c r="H22" s="21">
         <f t="shared" si="4"/>
-        <v>67.274999493256104</v>
+        <v>229.61608249345988</v>
       </c>
       <c r="I22" s="21">
         <f t="shared" si="5"/>
-        <v>134.54999898651221</v>
+        <v>459.23216498691977</v>
       </c>
       <c r="J22" s="21">
         <f t="shared" si="11"/>
-        <v>12.231818089682926</v>
+        <v>137.76964949607591</v>
       </c>
       <c r="K22" s="21">
         <f t="shared" si="7"/>
-        <v>18.347727134524391</v>
+        <v>298.50090724149771</v>
       </c>
       <c r="L22" s="21">
         <f t="shared" si="12"/>
-        <v>12.231818089682926</v>
+        <v>38.269347082243321</v>
       </c>
       <c r="M22" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O22" s="1">
-        <f t="shared" si="8"/>
+      <c r="O22" s="22">
         <v>1.1000000000000001</v>
       </c>
       <c r="P22" s="1">
@@ -2105,23 +2120,23 @@
       </c>
       <c r="H23" s="21">
         <f t="shared" si="4"/>
-        <v>74.002499442581723</v>
+        <v>252.57769074280588</v>
       </c>
       <c r="I23" s="21">
         <f t="shared" si="5"/>
-        <v>148.00499888516345</v>
+        <v>505.15538148561177</v>
       </c>
       <c r="J23" s="21">
         <f t="shared" si="11"/>
-        <v>13.45499989865122</v>
+        <v>151.54661444568353</v>
       </c>
       <c r="K23" s="21">
         <f t="shared" si="7"/>
-        <v>20.182499847976832</v>
+        <v>328.35099796564754</v>
       </c>
       <c r="L23" s="21">
         <f t="shared" si="12"/>
-        <v>13.45499989865122</v>
+        <v>42.096281790467657</v>
       </c>
       <c r="M23" s="18" t="s">
         <v>16</v>
@@ -2167,23 +2182,23 @@
       </c>
       <c r="H24" s="21">
         <f t="shared" si="4"/>
-        <v>81.402749386839901</v>
+        <v>277.83545981708647</v>
       </c>
       <c r="I24" s="21">
         <f t="shared" si="5"/>
-        <v>162.8054987736798</v>
+        <v>555.67091963417295</v>
       </c>
       <c r="J24" s="21">
         <f t="shared" si="11"/>
-        <v>14.800499888516343</v>
+        <v>166.70127589025191</v>
       </c>
       <c r="K24" s="21">
         <f t="shared" si="7"/>
-        <v>22.200749832774516</v>
+        <v>361.18609776221234</v>
       </c>
       <c r="L24" s="21">
         <f t="shared" si="12"/>
-        <v>14.800499888516343</v>
+        <v>46.305909969514424</v>
       </c>
       <c r="M24" s="18" t="s">
         <v>16</v>
@@ -2229,23 +2244,23 @@
       </c>
       <c r="H25" s="21">
         <f t="shared" si="4"/>
-        <v>89.543024325523902</v>
+        <v>305.61900579879517</v>
       </c>
       <c r="I25" s="21">
         <f t="shared" si="5"/>
-        <v>179.0860486510478</v>
+        <v>611.23801159759034</v>
       </c>
       <c r="J25" s="21">
         <f t="shared" si="11"/>
-        <v>16.280549877367978</v>
+        <v>183.37140347927712</v>
       </c>
       <c r="K25" s="21">
         <f t="shared" si="7"/>
-        <v>24.420824816051969</v>
+        <v>397.3047075384336</v>
       </c>
       <c r="L25" s="21">
         <f t="shared" si="12"/>
-        <v>16.280549877367978</v>
+        <v>50.936500966465871</v>
       </c>
       <c r="M25" s="18" t="s">
         <v>16</v>
@@ -2291,23 +2306,23 @@
       </c>
       <c r="H26" s="21">
         <f t="shared" si="4"/>
-        <v>98.497326758076298</v>
+        <v>336.18090637867471</v>
       </c>
       <c r="I26" s="21">
         <f t="shared" si="5"/>
-        <v>196.9946535161526</v>
+        <v>672.36181275734941</v>
       </c>
       <c r="J26" s="21">
         <f t="shared" si="11"/>
-        <v>17.908604865104778</v>
+        <v>201.70854382720483</v>
       </c>
       <c r="K26" s="21">
         <f t="shared" si="7"/>
-        <v>26.862907297657166</v>
+        <v>437.03517829227701</v>
       </c>
       <c r="L26" s="21">
         <f t="shared" si="12"/>
-        <v>17.908604865104778</v>
+        <v>56.030151063112463</v>
       </c>
       <c r="M26" s="18" t="s">
         <v>16</v>
@@ -2353,23 +2368,23 @@
       </c>
       <c r="H27" s="21">
         <f t="shared" si="4"/>
-        <v>108.34705943388394</v>
+        <v>369.79899701654222</v>
       </c>
       <c r="I27" s="21">
         <f t="shared" si="5"/>
-        <v>216.69411886776788</v>
+        <v>739.59799403308443</v>
       </c>
       <c r="J27" s="21">
         <f t="shared" si="11"/>
-        <v>19.699465351615256</v>
+        <v>221.87939820992534</v>
       </c>
       <c r="K27" s="21">
         <f t="shared" si="7"/>
-        <v>29.549198027422886</v>
+        <v>480.73869612150474</v>
       </c>
       <c r="L27" s="21">
         <f t="shared" si="12"/>
-        <v>19.699465351615256</v>
+        <v>61.633166169423717</v>
       </c>
       <c r="M27" s="18" t="s">
         <v>16</v>
@@ -2415,23 +2430,23 @@
       </c>
       <c r="H28" s="21">
         <f t="shared" si="4"/>
-        <v>119.18176537727234</v>
+        <v>406.77889671819645</v>
       </c>
       <c r="I28" s="21">
         <f t="shared" si="5"/>
-        <v>238.36353075454468</v>
+        <v>813.5577934363929</v>
       </c>
       <c r="J28" s="21">
         <f t="shared" si="11"/>
-        <v>21.669411886776782</v>
+        <v>244.06733803091788</v>
       </c>
       <c r="K28" s="21">
         <f t="shared" si="7"/>
-        <v>32.504117830165178</v>
+        <v>528.81256573365522</v>
       </c>
       <c r="L28" s="21">
         <f t="shared" si="12"/>
-        <v>21.669411886776782</v>
+        <v>67.796482786366099</v>
       </c>
       <c r="M28" s="18" t="s">
         <v>16</v>
@@ -2477,23 +2492,23 @@
       </c>
       <c r="H29" s="21">
         <f t="shared" si="4"/>
-        <v>131.09994191499959</v>
+        <v>447.45678639001613</v>
       </c>
       <c r="I29" s="21">
         <f t="shared" si="5"/>
-        <v>262.19988382999918</v>
+        <v>894.91357278003227</v>
       </c>
       <c r="J29" s="21">
         <f t="shared" si="11"/>
-        <v>23.836353075454461</v>
+        <v>268.47407183400969</v>
       </c>
       <c r="K29" s="21">
         <f t="shared" si="7"/>
-        <v>35.754529613181703</v>
+        <v>581.69382230702081</v>
       </c>
       <c r="L29" s="21">
         <f t="shared" si="12"/>
-        <v>23.836353075454461</v>
+        <v>74.576131065002713</v>
       </c>
       <c r="M29" s="18" t="s">
         <v>16</v>
@@ -2539,23 +2554,23 @@
       </c>
       <c r="H30" s="21">
         <f t="shared" si="4"/>
-        <v>144.20993610649955</v>
+        <v>492.20246502901779</v>
       </c>
       <c r="I30" s="21">
         <f t="shared" si="5"/>
-        <v>288.41987221299911</v>
+        <v>984.40493005803557</v>
       </c>
       <c r="J30" s="21">
         <f t="shared" si="11"/>
-        <v>26.219988382999908</v>
+        <v>295.3214790174107</v>
       </c>
       <c r="K30" s="21">
         <f t="shared" si="7"/>
-        <v>39.329982574499873</v>
+        <v>639.86320453772294</v>
       </c>
       <c r="L30" s="21">
         <f t="shared" si="12"/>
-        <v>26.219988382999908</v>
+        <v>82.033744171502988</v>
       </c>
       <c r="M30" s="18" t="s">
         <v>16</v>
@@ -2601,23 +2616,23 @@
       </c>
       <c r="H31" s="21">
         <f t="shared" si="4"/>
-        <v>158.63092971714951</v>
+        <v>541.42271153191962</v>
       </c>
       <c r="I31" s="21">
         <f t="shared" si="5"/>
-        <v>317.26185943429903</v>
+        <v>1082.8454230638392</v>
       </c>
       <c r="J31" s="21">
         <f t="shared" si="11"/>
-        <v>28.841987221299902</v>
+        <v>324.85362691915179</v>
       </c>
       <c r="K31" s="21">
         <f t="shared" si="7"/>
-        <v>43.262980831949861</v>
+        <v>703.84952499149529</v>
       </c>
       <c r="L31" s="21">
         <f t="shared" si="12"/>
-        <v>28.841987221299902</v>
+        <v>90.237118588653288</v>
       </c>
       <c r="M31" s="18" t="s">
         <v>16</v>
@@ -2663,29 +2678,29 @@
       </c>
       <c r="H32" s="14">
         <f t="shared" ref="H32:H41" si="19">H31*O32</f>
-        <v>206.22020863229437</v>
+        <v>595.56498268511166</v>
       </c>
       <c r="I32" s="14">
         <f t="shared" ref="I32:I41" si="20">I31*O32</f>
-        <v>412.44041726458875</v>
+        <v>1191.1299653702233</v>
       </c>
       <c r="J32" s="14">
         <f t="shared" ref="J32:J41" si="21">J31*O32</f>
-        <v>37.494583387689872</v>
+        <v>357.33898961106701</v>
       </c>
       <c r="K32" s="14">
         <f t="shared" ref="K32:K41" si="22">K31*O32</f>
-        <v>56.241875081534822</v>
+        <v>774.23447749064485</v>
       </c>
       <c r="L32" s="14">
         <f t="shared" ref="L32:L41" si="23">L31*O32</f>
-        <v>37.494583387689872</v>
+        <v>99.260830447518629</v>
       </c>
       <c r="M32" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O32" s="1">
-        <v>1.3</v>
+      <c r="O32" s="22">
+        <v>1.1000000000000001</v>
       </c>
       <c r="P32" s="1">
         <v>1.28</v>
@@ -2722,30 +2737,30 @@
       </c>
       <c r="H33" s="14">
         <f t="shared" si="19"/>
-        <v>268.08627122198271</v>
+        <v>655.12148095362284</v>
       </c>
       <c r="I33" s="14">
         <f t="shared" si="20"/>
-        <v>536.17254244396543</v>
+        <v>1310.2429619072457</v>
       </c>
       <c r="J33" s="14">
         <f t="shared" si="21"/>
-        <v>48.742958403996838</v>
+        <v>393.07288857217372</v>
       </c>
       <c r="K33" s="14">
         <f t="shared" si="22"/>
-        <v>73.114437605995278</v>
+        <v>851.65792523970936</v>
       </c>
       <c r="L33" s="14">
         <f t="shared" si="23"/>
-        <v>48.742958403996838</v>
+        <v>109.18691349227051</v>
       </c>
       <c r="M33" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O33" s="1">
         <f t="shared" si="8"/>
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P33" s="1">
         <f>P32</f>
@@ -2783,30 +2798,30 @@
       </c>
       <c r="H34" s="14">
         <f t="shared" si="19"/>
-        <v>348.51215258857752</v>
+        <v>720.6336290489852</v>
       </c>
       <c r="I34" s="14">
         <f t="shared" si="20"/>
-        <v>697.02430517715504</v>
+        <v>1441.2672580979704</v>
       </c>
       <c r="J34" s="14">
         <f t="shared" si="21"/>
-        <v>63.365845925195892</v>
+        <v>432.38017742939115</v>
       </c>
       <c r="K34" s="14">
         <f t="shared" si="22"/>
-        <v>95.048768887793869</v>
+        <v>936.82371776368041</v>
       </c>
       <c r="L34" s="14">
         <f t="shared" si="23"/>
-        <v>63.365845925195892</v>
+        <v>120.10560484149757</v>
       </c>
       <c r="M34" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O34" s="1">
         <f t="shared" si="8"/>
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P34" s="1">
         <f>P33</f>
@@ -2845,30 +2860,30 @@
       </c>
       <c r="H35" s="14">
         <f t="shared" si="19"/>
-        <v>453.06579836515078</v>
+        <v>792.69699195388375</v>
       </c>
       <c r="I35" s="14">
         <f t="shared" si="20"/>
-        <v>906.13159673030157</v>
+        <v>1585.3939839077675</v>
       </c>
       <c r="J35" s="14">
         <f t="shared" si="21"/>
-        <v>82.375599702754656</v>
+        <v>475.61819517233033</v>
       </c>
       <c r="K35" s="14">
         <f t="shared" si="22"/>
-        <v>123.56339955413203</v>
+        <v>1030.5060895400486</v>
       </c>
       <c r="L35" s="14">
         <f t="shared" si="23"/>
-        <v>82.375599702754656</v>
+        <v>132.11616532564733</v>
       </c>
       <c r="M35" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O35" s="1">
         <f t="shared" si="8"/>
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P35" s="1">
         <f t="shared" si="9"/>
@@ -2907,30 +2922,30 @@
       </c>
       <c r="H36" s="14">
         <f t="shared" si="19"/>
-        <v>588.98553787469609</v>
+        <v>871.96669114927215</v>
       </c>
       <c r="I36" s="14">
         <f t="shared" si="20"/>
-        <v>1177.9710757493922</v>
+        <v>1743.9333822985443</v>
       </c>
       <c r="J36" s="14">
         <f t="shared" si="21"/>
-        <v>107.08827961358105</v>
+        <v>523.18001468956345</v>
       </c>
       <c r="K36" s="14">
         <f t="shared" si="22"/>
-        <v>160.63241942037166</v>
+        <v>1133.5566984940535</v>
       </c>
       <c r="L36" s="14">
         <f t="shared" si="23"/>
-        <v>107.08827961358105</v>
+        <v>145.32778185821206</v>
       </c>
       <c r="M36" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O36" s="1">
         <f t="shared" si="8"/>
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P36" s="1">
         <f t="shared" si="9"/>
@@ -2969,30 +2984,30 @@
       </c>
       <c r="H37" s="14">
         <f t="shared" si="19"/>
-        <v>765.68119923710492</v>
+        <v>959.16336026419947</v>
       </c>
       <c r="I37" s="14">
         <f t="shared" si="20"/>
-        <v>1531.3623984742098</v>
+        <v>1918.3267205283989</v>
       </c>
       <c r="J37" s="14">
         <f t="shared" si="21"/>
-        <v>139.21476349765538</v>
+        <v>575.49801615851982</v>
       </c>
       <c r="K37" s="14">
         <f t="shared" si="22"/>
-        <v>208.82214524648316</v>
+        <v>1246.9123683434591</v>
       </c>
       <c r="L37" s="14">
         <f t="shared" si="23"/>
-        <v>139.21476349765538</v>
+        <v>159.86056004403329</v>
       </c>
       <c r="M37" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O37" s="1">
         <f t="shared" si="8"/>
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P37" s="1">
         <f t="shared" si="9"/>
@@ -3031,30 +3046,30 @@
       </c>
       <c r="H38" s="14">
         <f t="shared" si="19"/>
-        <v>995.38555900823644</v>
+        <v>1055.0796962906195</v>
       </c>
       <c r="I38" s="14">
         <f t="shared" si="20"/>
-        <v>1990.7711180164729</v>
+        <v>2110.159392581239</v>
       </c>
       <c r="J38" s="14">
         <f t="shared" si="21"/>
-        <v>180.97919254695199</v>
+        <v>633.04781777437188</v>
       </c>
       <c r="K38" s="14">
         <f t="shared" si="22"/>
-        <v>271.46878882042813</v>
+        <v>1371.6036051778051</v>
       </c>
       <c r="L38" s="14">
         <f t="shared" si="23"/>
-        <v>180.97919254695199</v>
+        <v>175.84661604843663</v>
       </c>
       <c r="M38" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O38" s="1">
         <f t="shared" si="8"/>
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P38" s="1">
         <f t="shared" si="9"/>
@@ -3093,30 +3108,30 @@
       </c>
       <c r="H39" s="14">
         <f t="shared" si="19"/>
-        <v>1294.0012267107074</v>
+        <v>1160.5876659196815</v>
       </c>
       <c r="I39" s="14">
         <f t="shared" si="20"/>
-        <v>2588.0024534214149</v>
+        <v>2321.175331839363</v>
       </c>
       <c r="J39" s="14">
         <f t="shared" si="21"/>
-        <v>235.27295031103759</v>
+        <v>696.35259955180913</v>
       </c>
       <c r="K39" s="14">
         <f t="shared" si="22"/>
-        <v>352.90942546655657</v>
+        <v>1508.7639656955857</v>
       </c>
       <c r="L39" s="14">
         <f t="shared" si="23"/>
-        <v>235.27295031103759</v>
+        <v>193.43127765328032</v>
       </c>
       <c r="M39" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O39" s="1">
         <f t="shared" si="8"/>
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P39" s="1">
         <f t="shared" si="9"/>
@@ -3155,30 +3170,30 @@
       </c>
       <c r="H40" s="14">
         <f t="shared" si="19"/>
-        <v>1682.2015947239197</v>
+        <v>1276.6464325116497</v>
       </c>
       <c r="I40" s="14">
         <f t="shared" si="20"/>
-        <v>3364.4031894478394</v>
+        <v>2553.2928650232993</v>
       </c>
       <c r="J40" s="14">
         <f t="shared" si="21"/>
-        <v>305.85483540434888</v>
+        <v>765.98785950699016</v>
       </c>
       <c r="K40" s="14">
         <f t="shared" si="22"/>
-        <v>458.78225310652357</v>
+        <v>1659.6403622651444</v>
       </c>
       <c r="L40" s="14">
         <f t="shared" si="23"/>
-        <v>305.85483540434888</v>
+        <v>212.77440541860838</v>
       </c>
       <c r="M40" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O40" s="1">
         <f t="shared" si="8"/>
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P40" s="1">
         <f t="shared" si="9"/>
@@ -3217,30 +3232,30 @@
       </c>
       <c r="H41" s="14">
         <f t="shared" si="19"/>
-        <v>2186.8620731410956</v>
+        <v>1404.3110757628147</v>
       </c>
       <c r="I41" s="14">
         <f t="shared" si="20"/>
-        <v>4373.7241462821912</v>
+        <v>2808.6221515256293</v>
       </c>
       <c r="J41" s="14">
         <f t="shared" si="21"/>
-        <v>397.61128602565356</v>
+        <v>842.5866454576892</v>
       </c>
       <c r="K41" s="14">
         <f t="shared" si="22"/>
-        <v>596.4169290384807</v>
+        <v>1825.6043984916589</v>
       </c>
       <c r="L41" s="14">
         <f t="shared" si="23"/>
-        <v>397.61128602565356</v>
+        <v>234.05184596046925</v>
       </c>
       <c r="M41" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O41" s="1">
         <f t="shared" si="8"/>
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P41" s="1">
         <f t="shared" si="9"/>
@@ -3279,29 +3294,29 @@
       </c>
       <c r="H42" s="15">
         <f t="shared" ref="H42:H51" si="28">H41*O42</f>
-        <v>2405.5482804552053</v>
+        <v>1502.6128510662118</v>
       </c>
       <c r="I42" s="15">
         <f t="shared" ref="I42:I51" si="29">I41*O42</f>
-        <v>4811.0965609104105</v>
+        <v>3005.2257021324235</v>
       </c>
       <c r="J42" s="15">
         <f t="shared" ref="J42:J51" si="30">J41*O42</f>
-        <v>437.37241462821896</v>
+        <v>901.56771063972747</v>
       </c>
       <c r="K42" s="15">
         <f t="shared" ref="K42:K51" si="31">K41*O42</f>
-        <v>656.05862194232884</v>
+        <v>1953.396706386075</v>
       </c>
       <c r="L42" s="15">
         <f t="shared" ref="L42:L51" si="32">L41*O42</f>
-        <v>437.37241462821896</v>
+        <v>250.4354751777021</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O42" s="1">
-        <v>1.1000000000000001</v>
+      <c r="O42" s="22">
+        <v>1.07</v>
       </c>
       <c r="P42" s="1">
         <f t="shared" si="9"/>
@@ -3340,30 +3355,30 @@
       </c>
       <c r="H43" s="15">
         <f t="shared" si="28"/>
-        <v>2646.1031085007262</v>
+        <v>1607.7957506408468</v>
       </c>
       <c r="I43" s="15">
         <f t="shared" si="29"/>
-        <v>5292.2062170014524</v>
+        <v>3215.5915012816936</v>
       </c>
       <c r="J43" s="15">
         <f t="shared" si="30"/>
-        <v>481.1096560910409</v>
+        <v>964.67745038450846</v>
       </c>
       <c r="K43" s="15">
         <f t="shared" si="31"/>
-        <v>721.66448413656178</v>
+        <v>2090.1344758331006</v>
       </c>
       <c r="L43" s="15">
         <f t="shared" si="32"/>
-        <v>481.1096560910409</v>
+        <v>267.96595844014126</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="O43" s="1">
         <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="P43" s="1">
         <f t="shared" si="9"/>
@@ -3402,30 +3417,30 @@
       </c>
       <c r="H44" s="15">
         <f t="shared" si="28"/>
-        <v>2910.7134193507991</v>
+        <v>1720.3414531857061</v>
       </c>
       <c r="I44" s="15">
         <f t="shared" si="29"/>
-        <v>5821.4268387015982</v>
+        <v>3440.6829063714122</v>
       </c>
       <c r="J44" s="15">
         <f t="shared" si="30"/>
-        <v>529.22062170014499</v>
+        <v>1032.2048719114241</v>
       </c>
       <c r="K44" s="15">
         <f t="shared" si="31"/>
-        <v>793.83093255021799</v>
+        <v>2236.4438891414179</v>
       </c>
       <c r="L44" s="15">
         <f t="shared" si="32"/>
-        <v>529.22062170014499</v>
+        <v>286.72357553095117</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="O44" s="1">
         <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="P44" s="1">
         <f t="shared" si="9"/>
@@ -3464,30 +3479,30 @@
       </c>
       <c r="H45" s="15">
         <f t="shared" si="28"/>
-        <v>3201.7847612858791</v>
+        <v>1840.7653549087056</v>
       </c>
       <c r="I45" s="15">
         <f t="shared" si="29"/>
-        <v>6403.5695225717582</v>
+        <v>3681.5307098174112</v>
       </c>
       <c r="J45" s="15">
         <f t="shared" si="30"/>
-        <v>582.14268387015954</v>
+        <v>1104.459212945224</v>
       </c>
       <c r="K45" s="15">
         <f t="shared" si="31"/>
-        <v>873.21402580523988</v>
+        <v>2392.9949613813174</v>
       </c>
       <c r="L45" s="15">
         <f t="shared" si="32"/>
-        <v>582.14268387015954</v>
+        <v>306.79422581811775</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="O45" s="1">
         <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="P45" s="1">
         <f t="shared" si="9"/>
@@ -3526,30 +3541,30 @@
       </c>
       <c r="H46" s="15">
         <f t="shared" si="28"/>
-        <v>3521.9632374144671</v>
+        <v>1969.6189297523151</v>
       </c>
       <c r="I46" s="15">
         <f t="shared" si="29"/>
-        <v>7043.9264748289343</v>
+        <v>3939.2378595046303</v>
       </c>
       <c r="J46" s="15">
         <f t="shared" si="30"/>
-        <v>640.35695225717552</v>
+        <v>1181.7713578513897</v>
       </c>
       <c r="K46" s="15">
         <f t="shared" si="31"/>
-        <v>960.53542838576391</v>
+        <v>2560.5046086780098</v>
       </c>
       <c r="L46" s="15">
         <f t="shared" si="32"/>
-        <v>640.35695225717552</v>
+        <v>328.26982162538599</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="O46" s="1">
         <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="P46" s="1">
         <f t="shared" si="9"/>
@@ -3588,30 +3603,30 @@
       </c>
       <c r="H47" s="15">
         <f t="shared" si="28"/>
-        <v>3874.1595611559142</v>
+        <v>2107.4922548349773</v>
       </c>
       <c r="I47" s="15">
         <f t="shared" si="29"/>
-        <v>7748.3191223118283</v>
+        <v>4214.9845096699546</v>
       </c>
       <c r="J47" s="15">
         <f t="shared" si="30"/>
-        <v>704.39264748289315</v>
+        <v>1264.495352900987</v>
       </c>
       <c r="K47" s="15">
         <f t="shared" si="31"/>
-        <v>1056.5889712243404</v>
+        <v>2739.7399312854709</v>
       </c>
       <c r="L47" s="15">
         <f t="shared" si="32"/>
-        <v>704.39264748289315</v>
+        <v>351.24870913916305</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="O47" s="1">
         <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="P47" s="1">
         <f t="shared" si="9"/>
@@ -3650,30 +3665,30 @@
       </c>
       <c r="H48" s="15">
         <f t="shared" si="28"/>
-        <v>4261.5755172715062</v>
+        <v>2255.0167126734259</v>
       </c>
       <c r="I48" s="15">
         <f t="shared" si="29"/>
-        <v>8523.1510345430124</v>
+        <v>4510.0334253468518</v>
       </c>
       <c r="J48" s="15">
         <f t="shared" si="30"/>
-        <v>774.83191223118251</v>
+        <v>1353.0100276040562</v>
       </c>
       <c r="K48" s="15">
         <f t="shared" si="31"/>
-        <v>1162.2478683467746</v>
+        <v>2931.5217264754542</v>
       </c>
       <c r="L48" s="15">
         <f t="shared" si="32"/>
-        <v>774.83191223118251</v>
+        <v>375.83611877890451</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="O48" s="1">
         <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="P48" s="1">
         <f t="shared" si="9"/>
@@ -3712,30 +3727,30 @@
       </c>
       <c r="H49" s="15">
         <f t="shared" si="28"/>
-        <v>4687.7330689986575</v>
+        <v>2412.8678825605657</v>
       </c>
       <c r="I49" s="15">
         <f t="shared" si="29"/>
-        <v>9375.4661379973149</v>
+        <v>4825.7357651211314</v>
       </c>
       <c r="J49" s="15">
         <f t="shared" si="30"/>
-        <v>852.31510345430081</v>
+        <v>1447.7207295363403</v>
       </c>
       <c r="K49" s="15">
         <f t="shared" si="31"/>
-        <v>1278.4726551814522</v>
+        <v>3136.7282473287364</v>
       </c>
       <c r="L49" s="15">
         <f t="shared" si="32"/>
-        <v>852.31510345430081</v>
+        <v>402.14464709342786</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="O49" s="1">
         <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="P49" s="1">
         <f t="shared" si="9"/>
@@ -3774,30 +3789,30 @@
       </c>
       <c r="H50" s="15">
         <f t="shared" si="28"/>
-        <v>5156.5063758985234</v>
+        <v>2581.7686343398054</v>
       </c>
       <c r="I50" s="15">
         <f t="shared" si="29"/>
-        <v>10313.012751797047</v>
+        <v>5163.5372686796109</v>
       </c>
       <c r="J50" s="15">
         <f t="shared" si="30"/>
-        <v>937.54661379973095</v>
+        <v>1549.0611806038842</v>
       </c>
       <c r="K50" s="15">
         <f t="shared" si="31"/>
-        <v>1406.3199206995976</v>
+        <v>3356.299224641748</v>
       </c>
       <c r="L50" s="15">
         <f t="shared" si="32"/>
-        <v>937.54661379973095</v>
+        <v>430.29477238996782</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="O50" s="1">
         <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="P50" s="1">
         <f t="shared" si="9"/>
@@ -3836,30 +3851,30 @@
       </c>
       <c r="H51" s="15">
         <f t="shared" si="28"/>
-        <v>5672.1570134883759</v>
+        <v>2762.4924387435922</v>
       </c>
       <c r="I51" s="15">
         <f t="shared" si="29"/>
-        <v>11344.314026976752</v>
+        <v>5524.9848774871843</v>
       </c>
       <c r="J51" s="15">
         <f t="shared" si="30"/>
-        <v>1031.3012751797041</v>
+        <v>1657.4954632461561</v>
       </c>
       <c r="K51" s="15">
         <f t="shared" si="31"/>
-        <v>1546.9519127695573</v>
+        <v>3591.2401703666706</v>
       </c>
       <c r="L51" s="15">
         <f t="shared" si="32"/>
-        <v>1031.3012751797041</v>
+        <v>460.41540645726559</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="O51" s="1">
         <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="P51" s="1">
         <f t="shared" si="9"/>
@@ -3898,30 +3913,29 @@
       </c>
       <c r="H52" s="16">
         <f t="shared" ref="H52:H61" si="37">H51*O52</f>
-        <v>6239.3727148372136</v>
+        <v>2900.6170606807718</v>
       </c>
       <c r="I52" s="16">
         <f t="shared" ref="I52:I61" si="38">I51*O52</f>
-        <v>12478.745429674427</v>
+        <v>5801.2341213615437</v>
       </c>
       <c r="J52" s="16">
         <f t="shared" ref="J52:J61" si="39">J51*O52</f>
-        <v>1134.4314026976747</v>
+        <v>1740.3702364084641</v>
       </c>
       <c r="K52" s="16">
         <f t="shared" ref="K52:K61" si="40">K51*O52</f>
-        <v>1701.6471040465133</v>
+        <v>3770.8021788850042</v>
       </c>
       <c r="L52" s="16">
         <f t="shared" ref="L52:L61" si="41">L51*O52</f>
-        <v>1134.4314026976747</v>
+        <v>483.4361767801289</v>
       </c>
       <c r="M52" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O52" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+      <c r="O52" s="22">
+        <v>1.05</v>
       </c>
       <c r="P52" s="1">
         <f t="shared" si="9"/>
@@ -3960,30 +3974,30 @@
       </c>
       <c r="H53" s="16">
         <f t="shared" si="37"/>
-        <v>6863.3099863209354</v>
+        <v>3045.6479137148103</v>
       </c>
       <c r="I53" s="16">
         <f t="shared" si="38"/>
-        <v>13726.619972641871</v>
+        <v>6091.2958274296207</v>
       </c>
       <c r="J53" s="16">
         <f t="shared" si="39"/>
-        <v>1247.8745429674423</v>
+        <v>1827.3887482288874</v>
       </c>
       <c r="K53" s="16">
         <f t="shared" si="40"/>
-        <v>1871.8118144511648</v>
+        <v>3959.3422878292545</v>
       </c>
       <c r="L53" s="16">
         <f t="shared" si="41"/>
-        <v>1247.8745429674423</v>
+        <v>507.60798561913538</v>
       </c>
       <c r="M53" s="6" t="s">
         <v>37</v>
       </c>
       <c r="O53" s="1">
         <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="P53" s="1">
         <f t="shared" si="9"/>
@@ -4022,30 +4036,30 @@
       </c>
       <c r="H54" s="16">
         <f t="shared" si="37"/>
-        <v>7549.6409849530291</v>
+        <v>3197.9303094005509</v>
       </c>
       <c r="I54" s="16">
         <f t="shared" si="38"/>
-        <v>15099.281969906058</v>
+        <v>6395.8606188011017</v>
       </c>
       <c r="J54" s="16">
         <f t="shared" si="39"/>
-        <v>1372.6619972641865</v>
+        <v>1918.7581856403319</v>
       </c>
       <c r="K54" s="16">
         <f t="shared" si="40"/>
-        <v>2058.9929958962816</v>
+        <v>4157.3094022207169</v>
       </c>
       <c r="L54" s="16">
         <f t="shared" si="41"/>
-        <v>1372.6619972641865</v>
+        <v>532.98838490009211</v>
       </c>
       <c r="M54" s="6" t="s">
         <v>37</v>
       </c>
       <c r="O54" s="1">
         <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="P54" s="1">
         <f t="shared" si="9"/>
@@ -4084,30 +4098,30 @@
       </c>
       <c r="H55" s="16">
         <f t="shared" si="37"/>
-        <v>8304.6050834483322</v>
+        <v>3357.8268248705785</v>
       </c>
       <c r="I55" s="16">
         <f t="shared" si="38"/>
-        <v>16609.210166896664</v>
+        <v>6715.6536497411571</v>
       </c>
       <c r="J55" s="16">
         <f t="shared" si="39"/>
-        <v>1509.9281969906053</v>
+        <v>2014.6960949223487</v>
       </c>
       <c r="K55" s="16">
         <f t="shared" si="40"/>
-        <v>2264.8922954859099</v>
+        <v>4365.1748723317532</v>
       </c>
       <c r="L55" s="16">
         <f t="shared" si="41"/>
-        <v>1509.9281969906053</v>
+        <v>559.63780414509677</v>
       </c>
       <c r="M55" s="6" t="s">
         <v>37</v>
       </c>
       <c r="O55" s="1">
         <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="P55" s="1">
         <f t="shared" si="9"/>
@@ -4146,30 +4160,30 @@
       </c>
       <c r="H56" s="16">
         <f t="shared" si="37"/>
-        <v>9135.0655917931654</v>
+        <v>3525.7181661141076</v>
       </c>
       <c r="I56" s="16">
         <f t="shared" si="38"/>
-        <v>18270.131183586331</v>
+        <v>7051.4363322282152</v>
       </c>
       <c r="J56" s="16">
         <f t="shared" si="39"/>
-        <v>1660.921016689666</v>
+        <v>2115.4308996684663</v>
       </c>
       <c r="K56" s="16">
         <f t="shared" si="40"/>
-        <v>2491.381525034501</v>
+        <v>4583.433615948341</v>
       </c>
       <c r="L56" s="16">
         <f t="shared" si="41"/>
-        <v>1660.921016689666</v>
+        <v>587.61969435235164</v>
       </c>
       <c r="M56" s="6" t="s">
         <v>37</v>
       </c>
       <c r="O56" s="1">
         <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="P56" s="1">
         <f t="shared" si="9"/>
@@ -4208,30 +4222,30 @@
       </c>
       <c r="H57" s="16">
         <f t="shared" si="37"/>
-        <v>10048.572150972483</v>
+        <v>3702.0040744198132</v>
       </c>
       <c r="I57" s="16">
         <f t="shared" si="38"/>
-        <v>20097.144301944965</v>
+        <v>7404.0081488396263</v>
       </c>
       <c r="J57" s="16">
         <f t="shared" si="39"/>
-        <v>1827.0131183586327</v>
+        <v>2221.2024446518899</v>
       </c>
       <c r="K57" s="16">
         <f t="shared" si="40"/>
-        <v>2740.5196775379513</v>
+        <v>4812.6052967457581</v>
       </c>
       <c r="L57" s="16">
         <f t="shared" si="41"/>
-        <v>1827.0131183586327</v>
+        <v>617.00067906996924</v>
       </c>
       <c r="M57" s="6" t="s">
         <v>37</v>
       </c>
       <c r="O57" s="1">
         <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="P57" s="1">
         <f t="shared" si="9"/>
@@ -4270,30 +4284,30 @@
       </c>
       <c r="H58" s="16">
         <f t="shared" si="37"/>
-        <v>11053.429366069731</v>
+        <v>3887.1042781408041</v>
       </c>
       <c r="I58" s="16">
         <f t="shared" si="38"/>
-        <v>22106.858732139463</v>
+        <v>7774.2085562816083</v>
       </c>
       <c r="J58" s="16">
         <f t="shared" si="39"/>
-        <v>2009.7144301944961</v>
+        <v>2332.2625668844844</v>
       </c>
       <c r="K58" s="16">
         <f t="shared" si="40"/>
-        <v>3014.5716452917468</v>
+        <v>5053.2355615830465</v>
       </c>
       <c r="L58" s="16">
         <f t="shared" si="41"/>
-        <v>2009.7144301944961</v>
+        <v>647.85071302346773</v>
       </c>
       <c r="M58" s="6" t="s">
         <v>37</v>
       </c>
       <c r="O58" s="1">
         <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="P58" s="1">
         <f t="shared" si="9"/>
@@ -4332,30 +4346,30 @@
       </c>
       <c r="H59" s="16">
         <f t="shared" si="37"/>
-        <v>12158.772302676705</v>
+        <v>4081.4594920478444</v>
       </c>
       <c r="I59" s="16">
         <f t="shared" si="38"/>
-        <v>24317.544605353411</v>
+        <v>8162.9189840956888</v>
       </c>
       <c r="J59" s="16">
         <f t="shared" si="39"/>
-        <v>2210.6858732139458</v>
+        <v>2448.8756952287085</v>
       </c>
       <c r="K59" s="16">
         <f t="shared" si="40"/>
-        <v>3316.0288098209217</v>
+        <v>5305.8973396621986</v>
       </c>
       <c r="L59" s="16">
         <f t="shared" si="41"/>
-        <v>2210.6858732139458</v>
+        <v>680.24324867464111</v>
       </c>
       <c r="M59" s="6" t="s">
         <v>37</v>
       </c>
       <c r="O59" s="1">
         <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="P59" s="1">
         <f t="shared" si="9"/>
@@ -4394,30 +4408,30 @@
       </c>
       <c r="H60" s="16">
         <f t="shared" si="37"/>
-        <v>13374.649532944377</v>
+        <v>4285.5324666502365</v>
       </c>
       <c r="I60" s="16">
         <f t="shared" si="38"/>
-        <v>26749.299065888754</v>
+        <v>8571.0649333004731</v>
       </c>
       <c r="J60" s="16">
         <f t="shared" si="39"/>
-        <v>2431.7544605353405</v>
+        <v>2571.3194799901439</v>
       </c>
       <c r="K60" s="16">
         <f t="shared" si="40"/>
-        <v>3647.631690803014</v>
+        <v>5571.1922066453089</v>
       </c>
       <c r="L60" s="16">
         <f t="shared" si="41"/>
-        <v>2431.7544605353405</v>
+        <v>714.25541110837321</v>
       </c>
       <c r="M60" s="6" t="s">
         <v>37</v>
       </c>
       <c r="O60" s="1">
         <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="P60" s="1">
         <f t="shared" si="9"/>
@@ -4456,30 +4470,30 @@
       </c>
       <c r="H61" s="16">
         <f t="shared" si="37"/>
-        <v>14712.114486238816</v>
+        <v>4499.8090899827484</v>
       </c>
       <c r="I61" s="16">
         <f t="shared" si="38"/>
-        <v>29424.228972477631</v>
+        <v>8999.6181799654969</v>
       </c>
       <c r="J61" s="16">
         <f t="shared" si="39"/>
-        <v>2674.9299065888749</v>
+        <v>2699.8854539896511</v>
       </c>
       <c r="K61" s="16">
         <f t="shared" si="40"/>
-        <v>4012.3948598833158</v>
+        <v>5849.7518169775749</v>
       </c>
       <c r="L61" s="16">
         <f t="shared" si="41"/>
-        <v>2674.9299065888749</v>
+        <v>749.96818166379194</v>
       </c>
       <c r="M61" s="6" t="s">
         <v>37</v>
       </c>
       <c r="O61" s="1">
         <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="P61" s="1">
         <f t="shared" si="9"/>

--- a/utilities/AutoSave/data/npcs.xlsx
+++ b/utilities/AutoSave/data/npcs.xlsx
@@ -378,7 +378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -443,7 +443,10 @@
     <xf numFmtId="3" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -732,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R76"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -750,12 +753,12 @@
     <col min="11" max="11" width="9.5703125" style="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -795,17 +798,17 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Q1" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -845,17 +848,17 @@
       <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="22">
-        <v>1.2</v>
-      </c>
-      <c r="P2" s="1">
+      <c r="O2" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P2" s="23">
         <v>1.25</v>
       </c>
-      <c r="R2" s="1">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q2" s="23">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -874,28 +877,28 @@
         <v>1.25</v>
       </c>
       <c r="F3" s="13">
-        <f>F2*R3</f>
+        <f>F2*Q3</f>
         <v>4.8</v>
       </c>
       <c r="G3" s="13">
-        <f>G2*R3</f>
+        <f>G2*Q3</f>
         <v>2.4</v>
       </c>
       <c r="H3" s="13">
         <f>H2*O3</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="13">
         <f>I2*O3</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J3" s="13">
         <f>J2*O3</f>
-        <v>7.1999999999999993</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="K3" s="13">
         <f>K2*O3</f>
-        <v>15.6</v>
+        <v>14.3</v>
       </c>
       <c r="L3" s="13">
         <f>L2+1</f>
@@ -904,20 +907,20 @@
       <c r="M3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="22">
         <f t="shared" ref="O3:P5" si="0">O2</f>
-        <v>1.2</v>
-      </c>
-      <c r="P3" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P3" s="22">
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-      <c r="R3" s="1">
-        <f>R2</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q3" s="22">
+        <f>Q2</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -936,50 +939,50 @@
         <v>1.5625</v>
       </c>
       <c r="F4" s="13">
-        <f>F3*R4</f>
+        <f>F3*Q4</f>
         <v>5.76</v>
       </c>
       <c r="G4" s="13">
-        <f>G3*R4</f>
+        <f>G3*Q4</f>
         <v>2.88</v>
       </c>
       <c r="H4" s="13">
         <f>H3*O4</f>
-        <v>14.399999999999999</v>
+        <v>12.100000000000001</v>
       </c>
       <c r="I4" s="13">
         <f>I3*O4</f>
-        <v>28.799999999999997</v>
+        <v>24.200000000000003</v>
       </c>
       <c r="J4" s="13">
         <f>J3*O4</f>
-        <v>8.6399999999999988</v>
+        <v>7.2600000000000016</v>
       </c>
       <c r="K4" s="13">
         <f>K3*O4</f>
-        <v>18.72</v>
+        <v>15.730000000000002</v>
       </c>
       <c r="L4" s="13">
         <f>L3*O4</f>
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="22">
         <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="P4" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P4" s="22">
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-      <c r="R4" s="1">
-        <f>R3</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q4" s="22">
+        <f>Q3</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -998,50 +1001,50 @@
         <v>1.953125</v>
       </c>
       <c r="F5" s="13">
-        <f>F4*R5</f>
+        <f>F4*Q5</f>
         <v>6.9119999999999999</v>
       </c>
       <c r="G5" s="13">
-        <f t="shared" ref="G5:G31" si="3">G4*R5</f>
+        <f>G4*Q5</f>
         <v>3.456</v>
       </c>
       <c r="H5" s="13">
-        <f t="shared" ref="H5:H31" si="4">H4*O5</f>
-        <v>17.279999999999998</v>
+        <f t="shared" ref="H5:H31" si="3">H4*O5</f>
+        <v>13.310000000000002</v>
       </c>
       <c r="I5" s="13">
-        <f t="shared" ref="I5:I31" si="5">I4*O5</f>
-        <v>34.559999999999995</v>
+        <f t="shared" ref="I5:I31" si="4">I4*O5</f>
+        <v>26.620000000000005</v>
       </c>
       <c r="J5" s="13">
         <f>J4*O5</f>
-        <v>10.367999999999999</v>
+        <v>7.9860000000000024</v>
       </c>
       <c r="K5" s="13">
         <f>K4*O5</f>
-        <v>22.463999999999999</v>
+        <v>17.303000000000004</v>
       </c>
       <c r="L5" s="13">
         <f>L4*O5</f>
-        <v>2.88</v>
+        <v>2.4200000000000004</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="22">
         <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="P5" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P5" s="22">
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-      <c r="R5" s="1">
-        <f>R4</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q5" s="22">
+        <f>Q4</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1060,50 +1063,50 @@
         <v>2.44140625</v>
       </c>
       <c r="F6" s="13">
-        <f t="shared" ref="F6:F31" si="6">F5*R6</f>
+        <f>F5*Q6</f>
         <v>8.2943999999999996</v>
       </c>
       <c r="G6" s="13">
+        <f>G5*Q6</f>
+        <v>4.1471999999999998</v>
+      </c>
+      <c r="H6" s="13">
         <f t="shared" si="3"/>
-        <v>4.1471999999999998</v>
-      </c>
-      <c r="H6" s="13">
+        <v>14.641000000000004</v>
+      </c>
+      <c r="I6" s="13">
         <f t="shared" si="4"/>
-        <v>20.735999999999997</v>
-      </c>
-      <c r="I6" s="13">
-        <f t="shared" si="5"/>
-        <v>41.471999999999994</v>
+        <v>29.282000000000007</v>
       </c>
       <c r="J6" s="13">
         <f>J5*O6</f>
-        <v>12.441599999999998</v>
+        <v>8.7846000000000029</v>
       </c>
       <c r="K6" s="13">
-        <f t="shared" ref="K6:K31" si="7">K5*O6</f>
-        <v>26.956799999999998</v>
+        <f t="shared" ref="K6:K31" si="5">K5*O6</f>
+        <v>19.033300000000008</v>
       </c>
       <c r="L6" s="13">
         <f>L5*O6</f>
-        <v>3.456</v>
+        <v>2.6620000000000008</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="1">
-        <f t="shared" ref="O6:O61" si="8">O5</f>
-        <v>1.2</v>
-      </c>
-      <c r="P6" s="1">
-        <f t="shared" ref="P6:P61" si="9">P5</f>
+      <c r="O6" s="22">
+        <f t="shared" ref="O6:O61" si="6">O5</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P6" s="22">
+        <f t="shared" ref="P6:P61" si="7">P5</f>
         <v>1.25</v>
       </c>
-      <c r="R6" s="1">
-        <f t="shared" ref="R6:R61" si="10">R5</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q6" s="22">
+        <f t="shared" ref="Q6:Q61" si="8">Q5</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1122,49 +1125,49 @@
         <v>2.9296875</v>
       </c>
       <c r="F7" s="13">
-        <f t="shared" si="6"/>
+        <f>F6*Q7</f>
         <v>9.9532799999999995</v>
       </c>
       <c r="G7" s="13">
+        <f>G6*Q7</f>
+        <v>4.9766399999999997</v>
+      </c>
+      <c r="H7" s="13">
         <f t="shared" si="3"/>
-        <v>4.9766399999999997</v>
-      </c>
-      <c r="H7" s="13">
+        <v>16.105100000000004</v>
+      </c>
+      <c r="I7" s="13">
         <f t="shared" si="4"/>
-        <v>24.883199999999995</v>
-      </c>
-      <c r="I7" s="13">
+        <v>32.210200000000007</v>
+      </c>
+      <c r="J7" s="13">
+        <f t="shared" ref="J7:J31" si="9">J6*O7</f>
+        <v>9.6630600000000033</v>
+      </c>
+      <c r="K7" s="13">
         <f t="shared" si="5"/>
-        <v>49.76639999999999</v>
-      </c>
-      <c r="J7" s="13">
-        <f t="shared" ref="J7:J31" si="11">J6*O7</f>
-        <v>14.929919999999996</v>
-      </c>
-      <c r="K7" s="13">
-        <f t="shared" si="7"/>
-        <v>32.348159999999993</v>
+        <v>20.936630000000012</v>
       </c>
       <c r="L7" s="13">
-        <f t="shared" ref="L7:L31" si="12">L6*O7</f>
-        <v>4.1471999999999998</v>
+        <f t="shared" ref="L7:L31" si="10">L6*O7</f>
+        <v>2.9282000000000012</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="1">
-        <f t="shared" si="8"/>
-        <v>1.2</v>
-      </c>
-      <c r="P7" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="R7" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O7" s="22">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P7" s="22">
+        <v>1.2</v>
+      </c>
+      <c r="Q7" s="22">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1183,50 +1186,50 @@
         <v>3.515625</v>
       </c>
       <c r="F8" s="13">
-        <f t="shared" si="6"/>
+        <f>F7*Q8</f>
         <v>11.943935999999999</v>
       </c>
       <c r="G8" s="13">
+        <f>G7*Q8</f>
+        <v>5.9719679999999995</v>
+      </c>
+      <c r="H8" s="13">
         <f t="shared" si="3"/>
-        <v>5.9719679999999995</v>
-      </c>
-      <c r="H8" s="13">
+        <v>17.715610000000005</v>
+      </c>
+      <c r="I8" s="13">
         <f t="shared" si="4"/>
-        <v>29.859839999999991</v>
-      </c>
-      <c r="I8" s="13">
+        <v>35.43122000000001</v>
+      </c>
+      <c r="J8" s="13">
+        <f t="shared" si="9"/>
+        <v>10.629366000000005</v>
+      </c>
+      <c r="K8" s="13">
         <f t="shared" si="5"/>
-        <v>59.719679999999983</v>
-      </c>
-      <c r="J8" s="13">
-        <f t="shared" si="11"/>
-        <v>17.915903999999994</v>
-      </c>
-      <c r="K8" s="13">
-        <f t="shared" si="7"/>
-        <v>38.81779199999999</v>
+        <v>23.030293000000015</v>
       </c>
       <c r="L8" s="13">
-        <f t="shared" si="12"/>
-        <v>4.9766399999999997</v>
+        <f t="shared" si="10"/>
+        <v>3.2210200000000015</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="1">
-        <f t="shared" si="8"/>
-        <v>1.2</v>
-      </c>
-      <c r="P8" s="1">
-        <f t="shared" si="9"/>
-        <v>1.2</v>
-      </c>
-      <c r="R8" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O8" s="22">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P8" s="22">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q8" s="22">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1245,50 +1248,50 @@
         <v>4.21875</v>
       </c>
       <c r="F9" s="13">
-        <f t="shared" si="6"/>
+        <f>F8*Q9</f>
         <v>14.332723199999998</v>
       </c>
       <c r="G9" s="13">
+        <f>G8*Q9</f>
+        <v>7.1663615999999992</v>
+      </c>
+      <c r="H9" s="13">
         <f t="shared" si="3"/>
-        <v>7.1663615999999992</v>
-      </c>
-      <c r="H9" s="13">
+        <v>19.487171000000007</v>
+      </c>
+      <c r="I9" s="13">
         <f t="shared" si="4"/>
-        <v>35.831807999999988</v>
-      </c>
-      <c r="I9" s="13">
+        <v>38.974342000000014</v>
+      </c>
+      <c r="J9" s="13">
+        <f t="shared" si="9"/>
+        <v>11.692302600000007</v>
+      </c>
+      <c r="K9" s="13">
         <f t="shared" si="5"/>
-        <v>71.663615999999976</v>
-      </c>
-      <c r="J9" s="13">
-        <f t="shared" si="11"/>
-        <v>21.499084799999991</v>
-      </c>
-      <c r="K9" s="13">
-        <f t="shared" si="7"/>
-        <v>46.581350399999984</v>
+        <v>25.333322300000017</v>
       </c>
       <c r="L9" s="13">
-        <f t="shared" si="12"/>
-        <v>5.9719679999999995</v>
+        <f t="shared" si="10"/>
+        <v>3.5431220000000021</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="1">
-        <f t="shared" si="8"/>
-        <v>1.2</v>
-      </c>
-      <c r="P9" s="1">
-        <f t="shared" si="9"/>
-        <v>1.2</v>
-      </c>
-      <c r="R9" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O9" s="22">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P9" s="22">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q9" s="22">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1307,50 +1310,50 @@
         <v>5.0625</v>
       </c>
       <c r="F10" s="13">
-        <f t="shared" si="6"/>
+        <f>F9*Q10</f>
         <v>17.199267839999997</v>
       </c>
       <c r="G10" s="13">
+        <f>G9*Q10</f>
+        <v>8.5996339199999987</v>
+      </c>
+      <c r="H10" s="13">
         <f t="shared" si="3"/>
-        <v>8.5996339199999987</v>
-      </c>
-      <c r="H10" s="13">
+        <v>21.43588810000001</v>
+      </c>
+      <c r="I10" s="13">
         <f t="shared" si="4"/>
-        <v>42.998169599999983</v>
-      </c>
-      <c r="I10" s="13">
+        <v>42.871776200000021</v>
+      </c>
+      <c r="J10" s="13">
+        <f t="shared" si="9"/>
+        <v>12.861532860000008</v>
+      </c>
+      <c r="K10" s="13">
         <f t="shared" si="5"/>
-        <v>85.996339199999966</v>
-      </c>
-      <c r="J10" s="13">
-        <f t="shared" si="11"/>
-        <v>25.798901759999989</v>
-      </c>
-      <c r="K10" s="13">
-        <f t="shared" si="7"/>
-        <v>55.897620479999979</v>
+        <v>27.866654530000019</v>
       </c>
       <c r="L10" s="13">
-        <f t="shared" si="12"/>
-        <v>7.1663615999999992</v>
+        <f t="shared" si="10"/>
+        <v>3.8974342000000028</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O10" s="1">
-        <f t="shared" si="8"/>
-        <v>1.2</v>
-      </c>
-      <c r="P10" s="1">
-        <f t="shared" si="9"/>
-        <v>1.2</v>
-      </c>
-      <c r="R10" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O10" s="22">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P10" s="22">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q10" s="22">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1369,50 +1372,50 @@
         <v>6.0750000000000002</v>
       </c>
       <c r="F11" s="13">
-        <f t="shared" si="6"/>
+        <f>F10*Q11</f>
         <v>20.639121407999998</v>
       </c>
       <c r="G11" s="13">
+        <f>G10*Q11</f>
+        <v>10.319560703999999</v>
+      </c>
+      <c r="H11" s="13">
         <f t="shared" si="3"/>
-        <v>10.319560703999999</v>
-      </c>
-      <c r="H11" s="13">
+        <v>23.579476910000015</v>
+      </c>
+      <c r="I11" s="13">
         <f t="shared" si="4"/>
-        <v>51.597803519999978</v>
-      </c>
-      <c r="I11" s="13">
+        <v>47.158953820000029</v>
+      </c>
+      <c r="J11" s="13">
+        <f t="shared" si="9"/>
+        <v>14.147686146000009</v>
+      </c>
+      <c r="K11" s="13">
         <f t="shared" si="5"/>
-        <v>103.19560703999996</v>
-      </c>
-      <c r="J11" s="13">
-        <f t="shared" si="11"/>
-        <v>30.958682111999984</v>
-      </c>
-      <c r="K11" s="13">
-        <f t="shared" si="7"/>
-        <v>67.077144575999966</v>
+        <v>30.653319983000024</v>
       </c>
       <c r="L11" s="13">
-        <f t="shared" si="12"/>
-        <v>8.5996339199999987</v>
+        <f t="shared" si="10"/>
+        <v>4.2871776200000031</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="1">
-        <f t="shared" si="8"/>
-        <v>1.2</v>
-      </c>
-      <c r="P11" s="1">
-        <f t="shared" si="9"/>
-        <v>1.2</v>
-      </c>
-      <c r="R11" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O11" s="22">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P11" s="22">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q11" s="22">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -1431,49 +1434,49 @@
         <v>7.29</v>
       </c>
       <c r="F12" s="20">
-        <f t="shared" si="6"/>
+        <f>F11*Q12</f>
         <v>24.766945689599996</v>
       </c>
       <c r="G12" s="20">
+        <f>G11*Q12</f>
+        <v>12.383472844799998</v>
+      </c>
+      <c r="H12" s="20">
         <f t="shared" si="3"/>
-        <v>12.383472844799998</v>
-      </c>
-      <c r="H12" s="20">
+        <v>25.701629831900018</v>
+      </c>
+      <c r="I12" s="20">
         <f t="shared" si="4"/>
-        <v>59.337474047999969</v>
-      </c>
-      <c r="I12" s="20">
+        <v>51.403259663800036</v>
+      </c>
+      <c r="J12" s="20">
+        <f t="shared" si="9"/>
+        <v>15.420977899140011</v>
+      </c>
+      <c r="K12" s="20">
         <f t="shared" si="5"/>
-        <v>118.67494809599994</v>
-      </c>
-      <c r="J12" s="20">
-        <f t="shared" si="11"/>
-        <v>35.602484428799976</v>
-      </c>
-      <c r="K12" s="20">
-        <f t="shared" si="7"/>
-        <v>77.138716262399953</v>
+        <v>33.412118781470028</v>
       </c>
       <c r="L12" s="20">
-        <f t="shared" si="12"/>
-        <v>9.8895790079999983</v>
+        <f t="shared" si="10"/>
+        <v>4.6730236058000036</v>
       </c>
       <c r="M12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="22">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="P12" s="1">
-        <f t="shared" si="9"/>
-        <v>1.2</v>
-      </c>
-      <c r="R12" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O12" s="23">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="P12" s="23">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q12" s="23">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -1492,50 +1495,50 @@
         <v>8.7479999999999993</v>
       </c>
       <c r="F13" s="20">
-        <f t="shared" si="6"/>
+        <f>F12*Q13</f>
         <v>29.720334827519995</v>
       </c>
       <c r="G13" s="20">
+        <f>G12*Q13</f>
+        <v>14.860167413759998</v>
+      </c>
+      <c r="H13" s="20">
         <f t="shared" si="3"/>
-        <v>14.860167413759998</v>
-      </c>
-      <c r="H13" s="20">
+        <v>28.014776516771022</v>
+      </c>
+      <c r="I13" s="20">
         <f t="shared" si="4"/>
-        <v>68.238095155199957</v>
-      </c>
-      <c r="I13" s="20">
+        <v>56.029553033542044</v>
+      </c>
+      <c r="J13" s="20">
+        <f t="shared" si="9"/>
+        <v>16.808865910062615</v>
+      </c>
+      <c r="K13" s="20">
         <f t="shared" si="5"/>
-        <v>136.47619031039991</v>
-      </c>
-      <c r="J13" s="20">
-        <f t="shared" si="11"/>
-        <v>40.942857093119969</v>
-      </c>
-      <c r="K13" s="20">
-        <f t="shared" si="7"/>
-        <v>88.709523701759935</v>
+        <v>36.419209471802333</v>
       </c>
       <c r="L13" s="20">
-        <f t="shared" si="12"/>
-        <v>11.373015859199997</v>
+        <f t="shared" si="10"/>
+        <v>5.0935957303220043</v>
       </c>
       <c r="M13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="O13" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="P13" s="1">
-        <f t="shared" si="9"/>
-        <v>1.2</v>
-      </c>
-      <c r="R13" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O13" s="22">
+        <f t="shared" si="6"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="P13" s="22">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q13" s="22">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>13</v>
       </c>
@@ -1554,50 +1557,50 @@
         <v>10.497599999999998</v>
       </c>
       <c r="F14" s="20">
-        <f t="shared" si="6"/>
+        <f>F13*Q14</f>
         <v>35.664401793023991</v>
       </c>
       <c r="G14" s="20">
+        <f>G13*Q14</f>
+        <v>17.832200896511996</v>
+      </c>
+      <c r="H14" s="20">
         <f t="shared" si="3"/>
-        <v>17.832200896511996</v>
-      </c>
-      <c r="H14" s="20">
+        <v>30.536106403280417</v>
+      </c>
+      <c r="I14" s="20">
         <f t="shared" si="4"/>
-        <v>78.473809428479939</v>
-      </c>
-      <c r="I14" s="20">
+        <v>61.072212806560835</v>
+      </c>
+      <c r="J14" s="20">
+        <f t="shared" si="9"/>
+        <v>18.321663841968252</v>
+      </c>
+      <c r="K14" s="20">
         <f t="shared" si="5"/>
-        <v>156.94761885695988</v>
-      </c>
-      <c r="J14" s="20">
-        <f t="shared" si="11"/>
-        <v>47.08428565708796</v>
-      </c>
-      <c r="K14" s="20">
-        <f t="shared" si="7"/>
-        <v>102.01595225702391</v>
+        <v>39.696938324264543</v>
       </c>
       <c r="L14" s="20">
-        <f t="shared" si="12"/>
-        <v>13.078968238079996</v>
+        <f t="shared" si="10"/>
+        <v>5.5520193460509848</v>
       </c>
       <c r="M14" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="P14" s="1">
-        <f t="shared" si="9"/>
-        <v>1.2</v>
-      </c>
-      <c r="R14" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O14" s="22">
+        <f t="shared" si="6"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="P14" s="22">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q14" s="22">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -1616,50 +1619,50 @@
         <v>12.597119999999999</v>
       </c>
       <c r="F15" s="20">
-        <f t="shared" si="6"/>
+        <f>F14*Q15</f>
         <v>42.797282151628785</v>
       </c>
       <c r="G15" s="20">
+        <f>G14*Q15</f>
+        <v>21.398641075814393</v>
+      </c>
+      <c r="H15" s="20">
         <f t="shared" si="3"/>
-        <v>21.398641075814393</v>
-      </c>
-      <c r="H15" s="20">
+        <v>33.284355979575658</v>
+      </c>
+      <c r="I15" s="20">
         <f t="shared" si="4"/>
-        <v>90.244880842751925</v>
-      </c>
-      <c r="I15" s="20">
+        <v>66.568711959151315</v>
+      </c>
+      <c r="J15" s="20">
+        <f t="shared" si="9"/>
+        <v>19.970613587745397</v>
+      </c>
+      <c r="K15" s="20">
         <f t="shared" si="5"/>
-        <v>180.48976168550385</v>
-      </c>
-      <c r="J15" s="20">
-        <f t="shared" si="11"/>
-        <v>54.146928505651154</v>
-      </c>
-      <c r="K15" s="20">
-        <f t="shared" si="7"/>
-        <v>117.31834509557748</v>
+        <v>43.269662773448353</v>
       </c>
       <c r="L15" s="20">
-        <f t="shared" si="12"/>
-        <v>15.040813473791994</v>
+        <f t="shared" si="10"/>
+        <v>6.0517010871955739</v>
       </c>
       <c r="M15" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="O15" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="P15" s="1">
-        <f t="shared" si="9"/>
-        <v>1.2</v>
-      </c>
-      <c r="R15" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O15" s="22">
+        <f t="shared" si="6"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="P15" s="22">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q15" s="22">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -1678,50 +1681,50 @@
         <v>15.116543999999998</v>
       </c>
       <c r="F16" s="20">
-        <f t="shared" si="6"/>
+        <f>F15*Q16</f>
         <v>51.356738581954538</v>
       </c>
       <c r="G16" s="20">
+        <f>G15*Q16</f>
+        <v>25.678369290977269</v>
+      </c>
+      <c r="H16" s="20">
         <f t="shared" si="3"/>
-        <v>25.678369290977269</v>
-      </c>
-      <c r="H16" s="20">
+        <v>36.279948017737468</v>
+      </c>
+      <c r="I16" s="20">
         <f t="shared" si="4"/>
-        <v>103.78161296916471</v>
-      </c>
-      <c r="I16" s="20">
+        <v>72.559896035474935</v>
+      </c>
+      <c r="J16" s="20">
+        <f t="shared" si="9"/>
+        <v>21.767968810642486</v>
+      </c>
+      <c r="K16" s="20">
         <f t="shared" si="5"/>
-        <v>207.56322593832942</v>
-      </c>
-      <c r="J16" s="20">
-        <f t="shared" si="11"/>
-        <v>62.268967781498823</v>
-      </c>
-      <c r="K16" s="20">
-        <f t="shared" si="7"/>
-        <v>134.91609685991409</v>
+        <v>47.163932423058711</v>
       </c>
       <c r="L16" s="20">
-        <f t="shared" si="12"/>
-        <v>17.29693549486079</v>
+        <f t="shared" si="10"/>
+        <v>6.5963541850431762</v>
       </c>
       <c r="M16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="O16" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="P16" s="1">
-        <f t="shared" si="9"/>
-        <v>1.2</v>
-      </c>
-      <c r="R16" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O16" s="22">
+        <f t="shared" si="6"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="P16" s="22">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q16" s="22">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -1732,58 +1735,58 @@
         <v>76</v>
       </c>
       <c r="D17" s="20">
-        <f t="shared" ref="D17:D31" si="13">D16*P17</f>
+        <f t="shared" ref="D17:D31" si="11">D16*P17</f>
         <v>36.279705599999993</v>
       </c>
       <c r="E17" s="20">
-        <f t="shared" ref="E17:E31" si="14">E16*P17</f>
+        <f t="shared" ref="E17:E31" si="12">E16*P17</f>
         <v>18.139852799999996</v>
       </c>
       <c r="F17" s="20">
-        <f t="shared" si="6"/>
+        <f>F16*Q17</f>
         <v>61.628086298345444</v>
       </c>
       <c r="G17" s="20">
+        <f>G16*Q17</f>
+        <v>30.814043149172722</v>
+      </c>
+      <c r="H17" s="20">
         <f t="shared" si="3"/>
-        <v>30.814043149172722</v>
-      </c>
-      <c r="H17" s="20">
+        <v>39.545143339333841</v>
+      </c>
+      <c r="I17" s="20">
         <f t="shared" si="4"/>
-        <v>119.34885491453942</v>
-      </c>
-      <c r="I17" s="20">
+        <v>79.090286678667681</v>
+      </c>
+      <c r="J17" s="20">
+        <f t="shared" si="9"/>
+        <v>23.727086003600313</v>
+      </c>
+      <c r="K17" s="20">
         <f t="shared" si="5"/>
-        <v>238.69770982907883</v>
-      </c>
-      <c r="J17" s="20">
-        <f t="shared" si="11"/>
-        <v>71.609312948723641</v>
-      </c>
-      <c r="K17" s="20">
-        <f t="shared" si="7"/>
-        <v>155.15351138890119</v>
+        <v>51.408686341134</v>
       </c>
       <c r="L17" s="20">
-        <f t="shared" si="12"/>
-        <v>19.891475819089909</v>
+        <f t="shared" si="10"/>
+        <v>7.1900260616970622</v>
       </c>
       <c r="M17" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="O17" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="P17" s="1">
-        <f t="shared" si="9"/>
-        <v>1.2</v>
-      </c>
-      <c r="R17" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O17" s="22">
+        <f t="shared" si="6"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="P17" s="22">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q17" s="22">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>17</v>
       </c>
@@ -1794,58 +1797,58 @@
         <v>81</v>
       </c>
       <c r="D18" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>43.535646719999988</v>
       </c>
       <c r="E18" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>21.767823359999994</v>
       </c>
       <c r="F18" s="20">
-        <f t="shared" si="6"/>
+        <f>F17*Q18</f>
         <v>73.953703558014524</v>
       </c>
       <c r="G18" s="20">
+        <f>G17*Q18</f>
+        <v>36.976851779007262</v>
+      </c>
+      <c r="H18" s="20">
         <f t="shared" si="3"/>
-        <v>36.976851779007262</v>
-      </c>
-      <c r="H18" s="20">
+        <v>43.104206239873889</v>
+      </c>
+      <c r="I18" s="20">
         <f t="shared" si="4"/>
-        <v>137.25118315172031</v>
-      </c>
-      <c r="I18" s="20">
+        <v>86.208412479747778</v>
+      </c>
+      <c r="J18" s="20">
+        <f t="shared" si="9"/>
+        <v>25.862523743924342</v>
+      </c>
+      <c r="K18" s="20">
         <f t="shared" si="5"/>
-        <v>274.50236630344062</v>
-      </c>
-      <c r="J18" s="20">
-        <f t="shared" si="11"/>
-        <v>82.350709891032182</v>
-      </c>
-      <c r="K18" s="20">
-        <f t="shared" si="7"/>
-        <v>178.42653809723635</v>
+        <v>56.035468111836067</v>
       </c>
       <c r="L18" s="20">
-        <f t="shared" si="12"/>
-        <v>22.875197191953394</v>
+        <f t="shared" si="10"/>
+        <v>7.8371284072497982</v>
       </c>
       <c r="M18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="P18" s="1">
-        <f t="shared" si="9"/>
-        <v>1.2</v>
-      </c>
-      <c r="R18" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O18" s="22">
+        <f t="shared" si="6"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="P18" s="22">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q18" s="22">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -1856,58 +1859,58 @@
         <v>86</v>
       </c>
       <c r="D19" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>52.242776063999983</v>
       </c>
       <c r="E19" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>26.121388031999992</v>
       </c>
       <c r="F19" s="20">
-        <f t="shared" si="6"/>
+        <f>F18*Q19</f>
         <v>88.744444269617432</v>
       </c>
       <c r="G19" s="20">
+        <f>G18*Q19</f>
+        <v>44.372222134808716</v>
+      </c>
+      <c r="H19" s="20">
         <f t="shared" si="3"/>
-        <v>44.372222134808716</v>
-      </c>
-      <c r="H19" s="20">
+        <v>46.983584801462541</v>
+      </c>
+      <c r="I19" s="20">
         <f t="shared" si="4"/>
-        <v>157.83886062447834</v>
-      </c>
-      <c r="I19" s="20">
+        <v>93.967169602925082</v>
+      </c>
+      <c r="J19" s="20">
+        <f t="shared" si="9"/>
+        <v>28.190150880877535</v>
+      </c>
+      <c r="K19" s="20">
         <f t="shared" si="5"/>
-        <v>315.67772124895669</v>
-      </c>
-      <c r="J19" s="20">
-        <f t="shared" si="11"/>
-        <v>94.703316374687006</v>
-      </c>
-      <c r="K19" s="20">
-        <f t="shared" si="7"/>
-        <v>205.19051881182179</v>
+        <v>61.078660241901318</v>
       </c>
       <c r="L19" s="20">
-        <f t="shared" si="12"/>
-        <v>26.3064767707464</v>
+        <f t="shared" si="10"/>
+        <v>8.5424699639022812</v>
       </c>
       <c r="M19" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="O19" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="P19" s="1">
-        <f t="shared" si="9"/>
-        <v>1.2</v>
-      </c>
-      <c r="R19" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O19" s="22">
+        <f t="shared" si="6"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="P19" s="22">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q19" s="22">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>19</v>
       </c>
@@ -1918,58 +1921,58 @@
         <v>91</v>
       </c>
       <c r="D20" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>62.691331276799978</v>
       </c>
       <c r="E20" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>31.345665638399989</v>
       </c>
       <c r="F20" s="20">
-        <f t="shared" si="6"/>
+        <f>F19*Q20</f>
         <v>106.49333312354092</v>
       </c>
       <c r="G20" s="20">
+        <f>G19*Q20</f>
+        <v>53.246666561770461</v>
+      </c>
+      <c r="H20" s="20">
         <f t="shared" si="3"/>
-        <v>53.246666561770461</v>
-      </c>
-      <c r="H20" s="20">
+        <v>51.212107433594177</v>
+      </c>
+      <c r="I20" s="20">
         <f t="shared" si="4"/>
-        <v>181.51468971815009</v>
-      </c>
-      <c r="I20" s="20">
+        <v>102.42421486718835</v>
+      </c>
+      <c r="J20" s="20">
+        <f t="shared" si="9"/>
+        <v>30.727264460156515</v>
+      </c>
+      <c r="K20" s="20">
         <f t="shared" si="5"/>
-        <v>363.02937943630019</v>
-      </c>
-      <c r="J20" s="20">
-        <f t="shared" si="11"/>
-        <v>108.90881383089005</v>
-      </c>
-      <c r="K20" s="20">
-        <f t="shared" si="7"/>
-        <v>235.96909663359503</v>
+        <v>66.575739663672437</v>
       </c>
       <c r="L20" s="20">
-        <f t="shared" si="12"/>
-        <v>30.252448286358359</v>
+        <f t="shared" si="10"/>
+        <v>9.311292260653488</v>
       </c>
       <c r="M20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="O20" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="P20" s="1">
-        <f t="shared" si="9"/>
-        <v>1.2</v>
-      </c>
-      <c r="R20" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O20" s="22">
+        <f t="shared" si="6"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="P20" s="22">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q20" s="22">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -1980,58 +1983,58 @@
         <v>96</v>
       </c>
       <c r="D21" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>75.229597532159971</v>
       </c>
       <c r="E21" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>37.614798766079986</v>
       </c>
       <c r="F21" s="20">
-        <f t="shared" si="6"/>
+        <f>F20*Q21</f>
         <v>127.7919997482491</v>
       </c>
       <c r="G21" s="20">
+        <f>G20*Q21</f>
+        <v>63.895999874124549</v>
+      </c>
+      <c r="H21" s="20">
         <f t="shared" si="3"/>
-        <v>63.895999874124549</v>
-      </c>
-      <c r="H21" s="20">
+        <v>55.82119710261766</v>
+      </c>
+      <c r="I21" s="20">
         <f t="shared" si="4"/>
-        <v>208.7418931758726</v>
-      </c>
-      <c r="I21" s="20">
+        <v>111.64239420523532</v>
+      </c>
+      <c r="J21" s="20">
+        <f t="shared" si="9"/>
+        <v>33.492718261570602</v>
+      </c>
+      <c r="K21" s="20">
         <f t="shared" si="5"/>
-        <v>417.48378635174521</v>
-      </c>
-      <c r="J21" s="20">
-        <f t="shared" si="11"/>
-        <v>125.24513590552355</v>
-      </c>
-      <c r="K21" s="20">
-        <f t="shared" si="7"/>
-        <v>271.36446112863428</v>
+        <v>72.567556233402968</v>
       </c>
       <c r="L21" s="20">
-        <f t="shared" si="12"/>
-        <v>34.79031552931211</v>
+        <f t="shared" si="10"/>
+        <v>10.149308564112303</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="O21" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="P21" s="1">
-        <f t="shared" si="9"/>
-        <v>1.2</v>
-      </c>
-      <c r="R21" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O21" s="22">
+        <f t="shared" si="6"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="P21" s="22">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q21" s="22">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>21</v>
       </c>
@@ -2042,57 +2045,57 @@
         <v>101</v>
       </c>
       <c r="D22" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>90.275517038591957</v>
       </c>
       <c r="E22" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>45.137758519295978</v>
       </c>
       <c r="F22" s="21">
-        <f t="shared" si="6"/>
+        <f>F21*Q22</f>
         <v>153.35039969789892</v>
       </c>
       <c r="G22" s="21">
+        <f>G21*Q22</f>
+        <v>76.675199848949461</v>
+      </c>
+      <c r="H22" s="21">
         <f t="shared" si="3"/>
-        <v>76.675199848949461</v>
-      </c>
-      <c r="H22" s="21">
+        <v>60.286892870827074</v>
+      </c>
+      <c r="I22" s="21">
         <f t="shared" si="4"/>
-        <v>229.61608249345988</v>
-      </c>
-      <c r="I22" s="21">
+        <v>120.57378574165415</v>
+      </c>
+      <c r="J22" s="21">
+        <f t="shared" si="9"/>
+        <v>36.17213572249625</v>
+      </c>
+      <c r="K22" s="21">
         <f t="shared" si="5"/>
-        <v>459.23216498691977</v>
-      </c>
-      <c r="J22" s="21">
-        <f t="shared" si="11"/>
-        <v>137.76964949607591</v>
-      </c>
-      <c r="K22" s="21">
-        <f t="shared" si="7"/>
-        <v>298.50090724149771</v>
+        <v>78.372960732075214</v>
       </c>
       <c r="L22" s="21">
-        <f t="shared" si="12"/>
-        <v>38.269347082243321</v>
+        <f t="shared" si="10"/>
+        <v>10.961253249241288</v>
       </c>
       <c r="M22" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O22" s="22">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P22" s="1">
-        <f t="shared" si="9"/>
-        <v>1.2</v>
-      </c>
-      <c r="R22" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O22" s="23">
+        <v>1.08</v>
+      </c>
+      <c r="P22" s="23">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q22" s="23">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>22</v>
       </c>
@@ -2103,58 +2106,58 @@
         <v>106</v>
       </c>
       <c r="D23" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>108.33062044631035</v>
       </c>
       <c r="E23" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>54.165310223155174</v>
       </c>
       <c r="F23" s="21">
-        <f t="shared" si="6"/>
+        <f>F22*Q23</f>
         <v>184.0204796374787</v>
       </c>
       <c r="G23" s="21">
+        <f>G22*Q23</f>
+        <v>92.01023981873935</v>
+      </c>
+      <c r="H23" s="21">
         <f t="shared" si="3"/>
-        <v>92.01023981873935</v>
-      </c>
-      <c r="H23" s="21">
+        <v>65.109844300493251</v>
+      </c>
+      <c r="I23" s="21">
         <f t="shared" si="4"/>
-        <v>252.57769074280588</v>
-      </c>
-      <c r="I23" s="21">
+        <v>130.2196886009865</v>
+      </c>
+      <c r="J23" s="21">
+        <f t="shared" si="9"/>
+        <v>39.065906580295952</v>
+      </c>
+      <c r="K23" s="21">
         <f t="shared" si="5"/>
-        <v>505.15538148561177</v>
-      </c>
-      <c r="J23" s="21">
-        <f t="shared" si="11"/>
-        <v>151.54661444568353</v>
-      </c>
-      <c r="K23" s="21">
-        <f t="shared" si="7"/>
-        <v>328.35099796564754</v>
+        <v>84.642797590641237</v>
       </c>
       <c r="L23" s="21">
-        <f t="shared" si="12"/>
-        <v>42.096281790467657</v>
+        <f t="shared" si="10"/>
+        <v>11.838153509180591</v>
       </c>
       <c r="M23" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O23" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P23" s="1">
-        <f t="shared" si="9"/>
-        <v>1.2</v>
-      </c>
-      <c r="R23" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O23" s="22">
+        <f t="shared" si="6"/>
+        <v>1.08</v>
+      </c>
+      <c r="P23" s="22">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q23" s="22">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>23</v>
       </c>
@@ -2165,58 +2168,58 @@
         <v>111</v>
       </c>
       <c r="D24" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>129.99674453557242</v>
       </c>
       <c r="E24" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>64.998372267786209</v>
       </c>
       <c r="F24" s="21">
-        <f t="shared" si="6"/>
+        <f>F23*Q24</f>
         <v>220.82457556497442</v>
       </c>
       <c r="G24" s="21">
+        <f>G23*Q24</f>
+        <v>110.41228778248721</v>
+      </c>
+      <c r="H24" s="21">
         <f t="shared" si="3"/>
-        <v>110.41228778248721</v>
-      </c>
-      <c r="H24" s="21">
+        <v>70.318631844532717</v>
+      </c>
+      <c r="I24" s="21">
         <f t="shared" si="4"/>
-        <v>277.83545981708647</v>
-      </c>
-      <c r="I24" s="21">
+        <v>140.63726368906543</v>
+      </c>
+      <c r="J24" s="21">
+        <f t="shared" si="9"/>
+        <v>42.19117910671963</v>
+      </c>
+      <c r="K24" s="21">
         <f t="shared" si="5"/>
-        <v>555.67091963417295</v>
-      </c>
-      <c r="J24" s="21">
-        <f t="shared" si="11"/>
-        <v>166.70127589025191</v>
-      </c>
-      <c r="K24" s="21">
-        <f t="shared" si="7"/>
-        <v>361.18609776221234</v>
+        <v>91.414221397892547</v>
       </c>
       <c r="L24" s="21">
-        <f t="shared" si="12"/>
-        <v>46.305909969514424</v>
+        <f t="shared" si="10"/>
+        <v>12.78520578991504</v>
       </c>
       <c r="M24" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O24" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P24" s="1">
-        <f t="shared" si="9"/>
-        <v>1.2</v>
-      </c>
-      <c r="R24" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O24" s="22">
+        <f t="shared" si="6"/>
+        <v>1.08</v>
+      </c>
+      <c r="P24" s="22">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q24" s="22">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>24</v>
       </c>
@@ -2227,58 +2230,58 @@
         <v>116</v>
       </c>
       <c r="D25" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>155.99609344268688</v>
       </c>
       <c r="E25" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>77.998046721343442</v>
       </c>
       <c r="F25" s="21">
-        <f t="shared" si="6"/>
+        <f>F24*Q25</f>
         <v>264.98949067796929</v>
       </c>
       <c r="G25" s="21">
+        <f>G24*Q25</f>
+        <v>132.49474533898464</v>
+      </c>
+      <c r="H25" s="21">
         <f t="shared" si="3"/>
-        <v>132.49474533898464</v>
-      </c>
-      <c r="H25" s="21">
+        <v>75.944122392095338</v>
+      </c>
+      <c r="I25" s="21">
         <f t="shared" si="4"/>
-        <v>305.61900579879517</v>
-      </c>
-      <c r="I25" s="21">
+        <v>151.88824478419068</v>
+      </c>
+      <c r="J25" s="21">
+        <f t="shared" si="9"/>
+        <v>45.566473435257201</v>
+      </c>
+      <c r="K25" s="21">
         <f t="shared" si="5"/>
-        <v>611.23801159759034</v>
-      </c>
-      <c r="J25" s="21">
-        <f t="shared" si="11"/>
-        <v>183.37140347927712</v>
-      </c>
-      <c r="K25" s="21">
-        <f t="shared" si="7"/>
-        <v>397.3047075384336</v>
+        <v>98.727359109723963</v>
       </c>
       <c r="L25" s="21">
-        <f t="shared" si="12"/>
-        <v>50.936500966465871</v>
+        <f t="shared" si="10"/>
+        <v>13.808022253108243</v>
       </c>
       <c r="M25" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O25" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P25" s="1">
-        <f t="shared" si="9"/>
-        <v>1.2</v>
-      </c>
-      <c r="R25" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O25" s="22">
+        <f t="shared" si="6"/>
+        <v>1.08</v>
+      </c>
+      <c r="P25" s="22">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q25" s="22">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>25</v>
       </c>
@@ -2289,58 +2292,58 @@
         <v>121</v>
       </c>
       <c r="D26" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>187.19531213122426</v>
       </c>
       <c r="E26" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>93.597656065612128</v>
       </c>
       <c r="F26" s="21">
-        <f t="shared" si="6"/>
+        <f>F25*Q26</f>
         <v>317.98738881356314</v>
       </c>
       <c r="G26" s="21">
+        <f>G25*Q26</f>
+        <v>158.99369440678157</v>
+      </c>
+      <c r="H26" s="21">
         <f t="shared" si="3"/>
-        <v>158.99369440678157</v>
-      </c>
-      <c r="H26" s="21">
+        <v>82.019652183462966</v>
+      </c>
+      <c r="I26" s="21">
         <f t="shared" si="4"/>
-        <v>336.18090637867471</v>
-      </c>
-      <c r="I26" s="21">
+        <v>164.03930436692593</v>
+      </c>
+      <c r="J26" s="21">
+        <f t="shared" si="9"/>
+        <v>49.211791310077778</v>
+      </c>
+      <c r="K26" s="21">
         <f t="shared" si="5"/>
-        <v>672.36181275734941</v>
-      </c>
-      <c r="J26" s="21">
-        <f t="shared" si="11"/>
-        <v>201.70854382720483</v>
-      </c>
-      <c r="K26" s="21">
-        <f t="shared" si="7"/>
-        <v>437.03517829227701</v>
+        <v>106.62554783850189</v>
       </c>
       <c r="L26" s="21">
-        <f t="shared" si="12"/>
-        <v>56.030151063112463</v>
+        <f t="shared" si="10"/>
+        <v>14.912664033356904</v>
       </c>
       <c r="M26" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O26" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P26" s="1">
-        <f t="shared" si="9"/>
-        <v>1.2</v>
-      </c>
-      <c r="R26" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O26" s="22">
+        <f t="shared" si="6"/>
+        <v>1.08</v>
+      </c>
+      <c r="P26" s="22">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q26" s="22">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>26</v>
       </c>
@@ -2351,58 +2354,58 @@
         <v>126</v>
       </c>
       <c r="D27" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>224.6343745574691</v>
       </c>
       <c r="E27" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>112.31718727873455</v>
       </c>
       <c r="F27" s="21">
-        <f t="shared" si="6"/>
+        <f>F26*Q27</f>
         <v>381.58486657627577</v>
       </c>
       <c r="G27" s="21">
+        <f>G26*Q27</f>
+        <v>190.79243328813789</v>
+      </c>
+      <c r="H27" s="21">
         <f t="shared" si="3"/>
-        <v>190.79243328813789</v>
-      </c>
-      <c r="H27" s="21">
+        <v>88.581224358140005</v>
+      </c>
+      <c r="I27" s="21">
         <f t="shared" si="4"/>
-        <v>369.79899701654222</v>
-      </c>
-      <c r="I27" s="21">
+        <v>177.16244871628001</v>
+      </c>
+      <c r="J27" s="21">
+        <f t="shared" si="9"/>
+        <v>53.148734614884006</v>
+      </c>
+      <c r="K27" s="21">
         <f t="shared" si="5"/>
-        <v>739.59799403308443</v>
-      </c>
-      <c r="J27" s="21">
-        <f t="shared" si="11"/>
-        <v>221.87939820992534</v>
-      </c>
-      <c r="K27" s="21">
-        <f t="shared" si="7"/>
-        <v>480.73869612150474</v>
+        <v>115.15559166558205</v>
       </c>
       <c r="L27" s="21">
-        <f t="shared" si="12"/>
-        <v>61.633166169423717</v>
+        <f t="shared" si="10"/>
+        <v>16.105677156025457</v>
       </c>
       <c r="M27" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O27" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P27" s="1">
-        <f t="shared" si="9"/>
-        <v>1.2</v>
-      </c>
-      <c r="R27" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O27" s="22">
+        <f t="shared" si="6"/>
+        <v>1.08</v>
+      </c>
+      <c r="P27" s="22">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q27" s="22">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>27</v>
       </c>
@@ -2413,58 +2416,58 @@
         <v>131</v>
       </c>
       <c r="D28" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>269.5612494689629</v>
       </c>
       <c r="E28" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>134.78062473448145</v>
       </c>
       <c r="F28" s="21">
-        <f t="shared" si="6"/>
+        <f>F27*Q28</f>
         <v>457.90183989153093</v>
       </c>
       <c r="G28" s="21">
+        <f>G27*Q28</f>
+        <v>228.95091994576546</v>
+      </c>
+      <c r="H28" s="21">
         <f t="shared" si="3"/>
-        <v>228.95091994576546</v>
-      </c>
-      <c r="H28" s="21">
+        <v>95.667722306791205</v>
+      </c>
+      <c r="I28" s="21">
         <f t="shared" si="4"/>
-        <v>406.77889671819645</v>
-      </c>
-      <c r="I28" s="21">
+        <v>191.33544461358241</v>
+      </c>
+      <c r="J28" s="21">
+        <f t="shared" si="9"/>
+        <v>57.40063338407473</v>
+      </c>
+      <c r="K28" s="21">
         <f t="shared" si="5"/>
-        <v>813.5577934363929</v>
-      </c>
-      <c r="J28" s="21">
-        <f t="shared" si="11"/>
-        <v>244.06733803091788</v>
-      </c>
-      <c r="K28" s="21">
-        <f t="shared" si="7"/>
-        <v>528.81256573365522</v>
+        <v>124.36803899882862</v>
       </c>
       <c r="L28" s="21">
-        <f t="shared" si="12"/>
-        <v>67.796482786366099</v>
+        <f t="shared" si="10"/>
+        <v>17.394131328507495</v>
       </c>
       <c r="M28" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O28" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P28" s="1">
-        <f t="shared" si="9"/>
-        <v>1.2</v>
-      </c>
-      <c r="R28" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O28" s="22">
+        <f t="shared" si="6"/>
+        <v>1.08</v>
+      </c>
+      <c r="P28" s="22">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q28" s="22">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>28</v>
       </c>
@@ -2475,58 +2478,58 @@
         <v>136</v>
       </c>
       <c r="D29" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>323.47349936275549</v>
       </c>
       <c r="E29" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>161.73674968137774</v>
       </c>
       <c r="F29" s="21">
-        <f t="shared" si="6"/>
+        <f>F28*Q29</f>
         <v>549.48220786983711</v>
       </c>
       <c r="G29" s="21">
+        <f>G28*Q29</f>
+        <v>274.74110393491856</v>
+      </c>
+      <c r="H29" s="21">
         <f t="shared" si="3"/>
-        <v>274.74110393491856</v>
-      </c>
-      <c r="H29" s="21">
+        <v>103.32114009133451</v>
+      </c>
+      <c r="I29" s="21">
         <f t="shared" si="4"/>
-        <v>447.45678639001613</v>
-      </c>
-      <c r="I29" s="21">
+        <v>206.64228018266903</v>
+      </c>
+      <c r="J29" s="21">
+        <f t="shared" si="9"/>
+        <v>61.992684054800712</v>
+      </c>
+      <c r="K29" s="21">
         <f t="shared" si="5"/>
-        <v>894.91357278003227</v>
-      </c>
-      <c r="J29" s="21">
-        <f t="shared" si="11"/>
-        <v>268.47407183400969</v>
-      </c>
-      <c r="K29" s="21">
-        <f t="shared" si="7"/>
-        <v>581.69382230702081</v>
+        <v>134.31748211873492</v>
       </c>
       <c r="L29" s="21">
-        <f t="shared" si="12"/>
-        <v>74.576131065002713</v>
+        <f t="shared" si="10"/>
+        <v>18.785661834788094</v>
       </c>
       <c r="M29" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P29" s="1">
-        <f t="shared" si="9"/>
-        <v>1.2</v>
-      </c>
-      <c r="R29" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O29" s="22">
+        <f t="shared" si="6"/>
+        <v>1.08</v>
+      </c>
+      <c r="P29" s="22">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q29" s="22">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>29</v>
       </c>
@@ -2537,58 +2540,58 @@
         <v>141</v>
       </c>
       <c r="D30" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>388.16819923530659</v>
       </c>
       <c r="E30" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>194.08409961765329</v>
       </c>
       <c r="F30" s="21">
-        <f t="shared" si="6"/>
+        <f>F29*Q30</f>
         <v>659.37864944380453</v>
       </c>
       <c r="G30" s="21">
+        <f>G29*Q30</f>
+        <v>329.68932472190227</v>
+      </c>
+      <c r="H30" s="21">
         <f t="shared" si="3"/>
-        <v>329.68932472190227</v>
-      </c>
-      <c r="H30" s="21">
+        <v>111.58683129864129</v>
+      </c>
+      <c r="I30" s="21">
         <f t="shared" si="4"/>
-        <v>492.20246502901779</v>
-      </c>
-      <c r="I30" s="21">
+        <v>223.17366259728257</v>
+      </c>
+      <c r="J30" s="21">
+        <f t="shared" si="9"/>
+        <v>66.95209877918478</v>
+      </c>
+      <c r="K30" s="21">
         <f t="shared" si="5"/>
-        <v>984.40493005803557</v>
-      </c>
-      <c r="J30" s="21">
-        <f t="shared" si="11"/>
-        <v>295.3214790174107</v>
-      </c>
-      <c r="K30" s="21">
-        <f t="shared" si="7"/>
-        <v>639.86320453772294</v>
+        <v>145.06288068823372</v>
       </c>
       <c r="L30" s="21">
-        <f t="shared" si="12"/>
-        <v>82.033744171502988</v>
+        <f t="shared" si="10"/>
+        <v>20.288514781571141</v>
       </c>
       <c r="M30" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P30" s="1">
-        <f t="shared" si="9"/>
-        <v>1.2</v>
-      </c>
-      <c r="R30" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O30" s="22">
+        <f t="shared" si="6"/>
+        <v>1.08</v>
+      </c>
+      <c r="P30" s="22">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q30" s="22">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>30</v>
       </c>
@@ -2599,58 +2602,58 @@
         <v>146</v>
       </c>
       <c r="D31" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>465.80183908236791</v>
       </c>
       <c r="E31" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>232.90091954118395</v>
       </c>
       <c r="F31" s="21">
-        <f t="shared" si="6"/>
+        <f>F30*Q31</f>
         <v>791.25437933256546</v>
       </c>
       <c r="G31" s="21">
+        <f>G30*Q31</f>
+        <v>395.62718966628273</v>
+      </c>
+      <c r="H31" s="21">
         <f t="shared" si="3"/>
-        <v>395.62718966628273</v>
-      </c>
-      <c r="H31" s="21">
+        <v>120.5137778025326</v>
+      </c>
+      <c r="I31" s="21">
         <f t="shared" si="4"/>
-        <v>541.42271153191962</v>
-      </c>
-      <c r="I31" s="21">
+        <v>241.0275556050652</v>
+      </c>
+      <c r="J31" s="21">
+        <f t="shared" si="9"/>
+        <v>72.308266681519569</v>
+      </c>
+      <c r="K31" s="21">
         <f t="shared" si="5"/>
-        <v>1082.8454230638392</v>
-      </c>
-      <c r="J31" s="21">
-        <f t="shared" si="11"/>
-        <v>324.85362691915179</v>
-      </c>
-      <c r="K31" s="21">
-        <f t="shared" si="7"/>
-        <v>703.84952499149529</v>
+        <v>156.66791114329243</v>
       </c>
       <c r="L31" s="21">
-        <f t="shared" si="12"/>
-        <v>90.237118588653288</v>
+        <f t="shared" si="10"/>
+        <v>21.911595964096833</v>
       </c>
       <c r="M31" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O31" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P31" s="1">
-        <f t="shared" si="9"/>
-        <v>1.2</v>
-      </c>
-      <c r="R31" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O31" s="22">
+        <f t="shared" si="6"/>
+        <v>1.08</v>
+      </c>
+      <c r="P31" s="22">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q31" s="22">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2661,55 +2664,55 @@
         <v>151</v>
       </c>
       <c r="D32" s="14">
-        <f t="shared" ref="D32:D41" si="15">D31*P32</f>
-        <v>596.22635402543096</v>
+        <f t="shared" ref="D32:D41" si="13">D31*P32</f>
+        <v>605.54239080707828</v>
       </c>
       <c r="E32" s="14">
-        <f t="shared" ref="E32:E41" si="16">E31*P32</f>
-        <v>298.11317701271548</v>
+        <f t="shared" ref="E32:E41" si="14">E31*P32</f>
+        <v>302.77119540353914</v>
       </c>
       <c r="F32" s="14">
-        <f t="shared" ref="F32:F41" si="17">F31*R32</f>
+        <f>F31*Q32</f>
         <v>870.37981726582211</v>
       </c>
       <c r="G32" s="14">
-        <f t="shared" ref="G32:G41" si="18">G31*R32</f>
+        <f>G31*Q32</f>
         <v>435.18990863291106</v>
       </c>
       <c r="H32" s="14">
-        <f t="shared" ref="H32:H41" si="19">H31*O32</f>
-        <v>595.56498268511166</v>
+        <f t="shared" ref="H32:H41" si="15">H31*O32</f>
+        <v>128.9497422487099</v>
       </c>
       <c r="I32" s="14">
-        <f t="shared" ref="I32:I41" si="20">I31*O32</f>
-        <v>1191.1299653702233</v>
+        <f t="shared" ref="I32:I41" si="16">I31*O32</f>
+        <v>257.89948449741979</v>
       </c>
       <c r="J32" s="14">
-        <f t="shared" ref="J32:J41" si="21">J31*O32</f>
-        <v>357.33898961106701</v>
+        <f t="shared" ref="J32:J41" si="17">J31*O32</f>
+        <v>77.36984534922594</v>
       </c>
       <c r="K32" s="14">
-        <f t="shared" ref="K32:K41" si="22">K31*O32</f>
-        <v>774.23447749064485</v>
+        <f t="shared" ref="K32:K41" si="18">K31*O32</f>
+        <v>167.6346649233229</v>
       </c>
       <c r="L32" s="14">
-        <f t="shared" ref="L32:L41" si="23">L31*O32</f>
-        <v>99.260830447518629</v>
+        <f t="shared" ref="L32:L41" si="19">L31*O32</f>
+        <v>23.445407681583614</v>
       </c>
       <c r="M32" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O32" s="22">
+      <c r="O32" s="23">
+        <v>1.07</v>
+      </c>
+      <c r="P32" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="Q32" s="23">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P32" s="1">
-        <v>1.28</v>
-      </c>
-      <c r="R32" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2720,57 +2723,58 @@
         <v>156</v>
       </c>
       <c r="D33" s="14">
+        <f t="shared" si="13"/>
+        <v>787.20510804920184</v>
+      </c>
+      <c r="E33" s="14">
+        <f t="shared" si="14"/>
+        <v>393.60255402460092</v>
+      </c>
+      <c r="F33" s="14">
+        <f>F32*Q33</f>
+        <v>957.41779899240441</v>
+      </c>
+      <c r="G33" s="14">
+        <f>G32*Q33</f>
+        <v>478.70889949620221</v>
+      </c>
+      <c r="H33" s="14">
         <f t="shared" si="15"/>
-        <v>763.16973315255166</v>
-      </c>
-      <c r="E33" s="14">
+        <v>137.97622420611961</v>
+      </c>
+      <c r="I33" s="14">
         <f t="shared" si="16"/>
-        <v>381.58486657627583</v>
-      </c>
-      <c r="F33" s="14">
+        <v>275.95244841223922</v>
+      </c>
+      <c r="J33" s="14">
         <f t="shared" si="17"/>
-        <v>1044.4557807189865</v>
-      </c>
-      <c r="G33" s="14">
+        <v>82.785734523671763</v>
+      </c>
+      <c r="K33" s="14">
         <f t="shared" si="18"/>
-        <v>522.22789035949324</v>
-      </c>
-      <c r="H33" s="14">
+        <v>179.36909146795551</v>
+      </c>
+      <c r="L33" s="14">
         <f t="shared" si="19"/>
-        <v>655.12148095362284</v>
-      </c>
-      <c r="I33" s="14">
-        <f t="shared" si="20"/>
-        <v>1310.2429619072457</v>
-      </c>
-      <c r="J33" s="14">
-        <f t="shared" si="21"/>
-        <v>393.07288857217372</v>
-      </c>
-      <c r="K33" s="14">
-        <f t="shared" si="22"/>
-        <v>851.65792523970936</v>
-      </c>
-      <c r="L33" s="14">
-        <f t="shared" si="23"/>
-        <v>109.18691349227051</v>
+        <v>25.086586219294468</v>
       </c>
       <c r="M33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O33" s="1">
-        <f t="shared" si="8"/>
+      <c r="O33" s="22">
+        <f t="shared" si="6"/>
+        <v>1.07</v>
+      </c>
+      <c r="P33" s="22">
+        <f>P32</f>
+        <v>1.3</v>
+      </c>
+      <c r="Q33" s="22">
+        <f>Q32</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="P33" s="1">
-        <f>P32</f>
-        <v>1.28</v>
-      </c>
-      <c r="R33" s="1">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -2781,58 +2785,58 @@
         <v>161</v>
       </c>
       <c r="D34" s="14">
+        <f t="shared" si="13"/>
+        <v>1023.3666404639624</v>
+      </c>
+      <c r="E34" s="14">
+        <f t="shared" si="14"/>
+        <v>511.68332023198121</v>
+      </c>
+      <c r="F34" s="14">
+        <f>F33*Q34</f>
+        <v>1053.159578891645</v>
+      </c>
+      <c r="G34" s="14">
+        <f>G33*Q34</f>
+        <v>526.57978944582248</v>
+      </c>
+      <c r="H34" s="14">
         <f t="shared" si="15"/>
-        <v>976.85725843526609</v>
-      </c>
-      <c r="E34" s="14">
+        <v>147.634559900548</v>
+      </c>
+      <c r="I34" s="14">
         <f t="shared" si="16"/>
-        <v>488.42862921763304</v>
-      </c>
-      <c r="F34" s="14">
+        <v>295.269119801096</v>
+      </c>
+      <c r="J34" s="14">
         <f t="shared" si="17"/>
-        <v>1253.3469368627837</v>
-      </c>
-      <c r="G34" s="14">
+        <v>88.580735940328793</v>
+      </c>
+      <c r="K34" s="14">
         <f t="shared" si="18"/>
-        <v>626.67346843139183</v>
-      </c>
-      <c r="H34" s="14">
+        <v>191.92492787071242</v>
+      </c>
+      <c r="L34" s="14">
         <f t="shared" si="19"/>
-        <v>720.6336290489852</v>
-      </c>
-      <c r="I34" s="14">
-        <f t="shared" si="20"/>
-        <v>1441.2672580979704</v>
-      </c>
-      <c r="J34" s="14">
-        <f t="shared" si="21"/>
-        <v>432.38017742939115</v>
-      </c>
-      <c r="K34" s="14">
-        <f t="shared" si="22"/>
-        <v>936.82371776368041</v>
-      </c>
-      <c r="L34" s="14">
-        <f t="shared" si="23"/>
-        <v>120.10560484149757</v>
+        <v>26.842647254645083</v>
       </c>
       <c r="M34" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O34" s="1">
-        <f t="shared" si="8"/>
+      <c r="O34" s="22">
+        <f t="shared" si="6"/>
+        <v>1.07</v>
+      </c>
+      <c r="P34" s="22">
+        <f>P33</f>
+        <v>1.3</v>
+      </c>
+      <c r="Q34" s="22">
+        <f>Q33</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="P34" s="1">
-        <f>P33</f>
-        <v>1.28</v>
-      </c>
-      <c r="R34" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2843,58 +2847,58 @@
         <v>166</v>
       </c>
       <c r="D35" s="14">
+        <f t="shared" si="13"/>
+        <v>1330.3766326031512</v>
+      </c>
+      <c r="E35" s="14">
+        <f t="shared" si="14"/>
+        <v>665.18831630157558</v>
+      </c>
+      <c r="F35" s="14">
+        <f>F34*Q35</f>
+        <v>1158.4755367808095</v>
+      </c>
+      <c r="G35" s="14">
+        <f>G34*Q35</f>
+        <v>579.23776839040477</v>
+      </c>
+      <c r="H35" s="14">
         <f t="shared" si="15"/>
-        <v>1250.3772907971406</v>
-      </c>
-      <c r="E35" s="14">
+        <v>157.96897909358637</v>
+      </c>
+      <c r="I35" s="14">
         <f t="shared" si="16"/>
-        <v>625.18864539857032</v>
-      </c>
-      <c r="F35" s="14">
+        <v>315.93795818717274</v>
+      </c>
+      <c r="J35" s="14">
         <f t="shared" si="17"/>
-        <v>1504.0163242353403</v>
-      </c>
-      <c r="G35" s="14">
+        <v>94.781387456151819</v>
+      </c>
+      <c r="K35" s="14">
         <f t="shared" si="18"/>
-        <v>752.00816211767017</v>
-      </c>
-      <c r="H35" s="14">
+        <v>205.35967282166231</v>
+      </c>
+      <c r="L35" s="14">
         <f t="shared" si="19"/>
-        <v>792.69699195388375</v>
-      </c>
-      <c r="I35" s="14">
-        <f t="shared" si="20"/>
-        <v>1585.3939839077675</v>
-      </c>
-      <c r="J35" s="14">
-        <f t="shared" si="21"/>
-        <v>475.61819517233033</v>
-      </c>
-      <c r="K35" s="14">
-        <f t="shared" si="22"/>
-        <v>1030.5060895400486</v>
-      </c>
-      <c r="L35" s="14">
-        <f t="shared" si="23"/>
-        <v>132.11616532564733</v>
+        <v>28.721632562470241</v>
       </c>
       <c r="M35" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O35" s="1">
+      <c r="O35" s="22">
+        <f t="shared" si="6"/>
+        <v>1.07</v>
+      </c>
+      <c r="P35" s="22">
+        <f t="shared" si="7"/>
+        <v>1.3</v>
+      </c>
+      <c r="Q35" s="22">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="P35" s="1">
-        <f t="shared" si="9"/>
-        <v>1.28</v>
-      </c>
-      <c r="R35" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2905,58 +2909,58 @@
         <v>171</v>
       </c>
       <c r="D36" s="14">
+        <f t="shared" si="13"/>
+        <v>1729.4896223840965</v>
+      </c>
+      <c r="E36" s="14">
+        <f t="shared" si="14"/>
+        <v>864.74481119204825</v>
+      </c>
+      <c r="F36" s="14">
+        <f>F35*Q36</f>
+        <v>1274.3230904588906</v>
+      </c>
+      <c r="G36" s="14">
+        <f>G35*Q36</f>
+        <v>637.16154522944532</v>
+      </c>
+      <c r="H36" s="14">
         <f t="shared" si="15"/>
-        <v>1600.48293222034</v>
-      </c>
-      <c r="E36" s="14">
+        <v>169.02680763013743</v>
+      </c>
+      <c r="I36" s="14">
         <f t="shared" si="16"/>
-        <v>800.24146611016999</v>
-      </c>
-      <c r="F36" s="14">
+        <v>338.05361526027485</v>
+      </c>
+      <c r="J36" s="14">
         <f t="shared" si="17"/>
-        <v>1804.8195890824084</v>
-      </c>
-      <c r="G36" s="14">
+        <v>101.41608457808245</v>
+      </c>
+      <c r="K36" s="14">
         <f t="shared" si="18"/>
-        <v>902.40979454120418</v>
-      </c>
-      <c r="H36" s="14">
+        <v>219.73484991917869</v>
+      </c>
+      <c r="L36" s="14">
         <f t="shared" si="19"/>
-        <v>871.96669114927215</v>
-      </c>
-      <c r="I36" s="14">
-        <f t="shared" si="20"/>
-        <v>1743.9333822985443</v>
-      </c>
-      <c r="J36" s="14">
-        <f t="shared" si="21"/>
-        <v>523.18001468956345</v>
-      </c>
-      <c r="K36" s="14">
-        <f t="shared" si="22"/>
-        <v>1133.5566984940535</v>
-      </c>
-      <c r="L36" s="14">
-        <f t="shared" si="23"/>
-        <v>145.32778185821206</v>
+        <v>30.732146841843161</v>
       </c>
       <c r="M36" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O36" s="1">
+      <c r="O36" s="22">
+        <f t="shared" si="6"/>
+        <v>1.07</v>
+      </c>
+      <c r="P36" s="22">
+        <f t="shared" si="7"/>
+        <v>1.3</v>
+      </c>
+      <c r="Q36" s="22">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="P36" s="1">
-        <f t="shared" si="9"/>
-        <v>1.28</v>
-      </c>
-      <c r="R36" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2967,58 +2971,58 @@
         <v>176</v>
       </c>
       <c r="D37" s="14">
+        <f t="shared" si="13"/>
+        <v>2248.3365090993257</v>
+      </c>
+      <c r="E37" s="14">
+        <f t="shared" si="14"/>
+        <v>1124.1682545496628</v>
+      </c>
+      <c r="F37" s="14">
+        <f>F36*Q37</f>
+        <v>1401.7553995047799</v>
+      </c>
+      <c r="G37" s="14">
+        <f>G36*Q37</f>
+        <v>700.87769975238996</v>
+      </c>
+      <c r="H37" s="14">
         <f t="shared" si="15"/>
-        <v>2048.6181532420351</v>
-      </c>
-      <c r="E37" s="14">
+        <v>180.85868416424705</v>
+      </c>
+      <c r="I37" s="14">
         <f t="shared" si="16"/>
-        <v>1024.3090766210175</v>
-      </c>
-      <c r="F37" s="14">
+        <v>361.7173683284941</v>
+      </c>
+      <c r="J37" s="14">
         <f t="shared" si="17"/>
-        <v>2165.7835068988898</v>
-      </c>
-      <c r="G37" s="14">
+        <v>108.51521049854823</v>
+      </c>
+      <c r="K37" s="14">
         <f t="shared" si="18"/>
-        <v>1082.8917534494449</v>
-      </c>
-      <c r="H37" s="14">
+        <v>235.1162894135212</v>
+      </c>
+      <c r="L37" s="14">
         <f t="shared" si="19"/>
-        <v>959.16336026419947</v>
-      </c>
-      <c r="I37" s="14">
-        <f t="shared" si="20"/>
-        <v>1918.3267205283989</v>
-      </c>
-      <c r="J37" s="14">
-        <f t="shared" si="21"/>
-        <v>575.49801615851982</v>
-      </c>
-      <c r="K37" s="14">
-        <f t="shared" si="22"/>
-        <v>1246.9123683434591</v>
-      </c>
-      <c r="L37" s="14">
-        <f t="shared" si="23"/>
-        <v>159.86056004403329</v>
+        <v>32.883397120772187</v>
       </c>
       <c r="M37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O37" s="1">
+      <c r="O37" s="22">
+        <f t="shared" si="6"/>
+        <v>1.07</v>
+      </c>
+      <c r="P37" s="22">
+        <f t="shared" si="7"/>
+        <v>1.3</v>
+      </c>
+      <c r="Q37" s="22">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="P37" s="1">
-        <f t="shared" si="9"/>
-        <v>1.28</v>
-      </c>
-      <c r="R37" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -3029,58 +3033,58 @@
         <v>181</v>
       </c>
       <c r="D38" s="14">
+        <f t="shared" si="13"/>
+        <v>2922.8374618291236</v>
+      </c>
+      <c r="E38" s="14">
+        <f t="shared" si="14"/>
+        <v>1461.4187309145618</v>
+      </c>
+      <c r="F38" s="14">
+        <f>F37*Q38</f>
+        <v>1541.9309394552581</v>
+      </c>
+      <c r="G38" s="14">
+        <f>G37*Q38</f>
+        <v>770.96546972762906</v>
+      </c>
+      <c r="H38" s="14">
         <f t="shared" si="15"/>
-        <v>2622.2312361498048</v>
-      </c>
-      <c r="E38" s="14">
+        <v>193.51879205574437</v>
+      </c>
+      <c r="I38" s="14">
         <f t="shared" si="16"/>
-        <v>1311.1156180749024</v>
-      </c>
-      <c r="F38" s="14">
+        <v>387.03758411148874</v>
+      </c>
+      <c r="J38" s="14">
         <f t="shared" si="17"/>
-        <v>2598.9402082786678</v>
-      </c>
-      <c r="G38" s="14">
+        <v>116.11127523344661</v>
+      </c>
+      <c r="K38" s="14">
         <f t="shared" si="18"/>
-        <v>1299.4701041393339</v>
-      </c>
-      <c r="H38" s="14">
+        <v>251.57442967246769</v>
+      </c>
+      <c r="L38" s="14">
         <f t="shared" si="19"/>
-        <v>1055.0796962906195</v>
-      </c>
-      <c r="I38" s="14">
-        <f t="shared" si="20"/>
-        <v>2110.159392581239</v>
-      </c>
-      <c r="J38" s="14">
-        <f t="shared" si="21"/>
-        <v>633.04781777437188</v>
-      </c>
-      <c r="K38" s="14">
-        <f t="shared" si="22"/>
-        <v>1371.6036051778051</v>
-      </c>
-      <c r="L38" s="14">
-        <f t="shared" si="23"/>
-        <v>175.84661604843663</v>
+        <v>35.185234919226239</v>
       </c>
       <c r="M38" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O38" s="1">
+      <c r="O38" s="22">
+        <f t="shared" si="6"/>
+        <v>1.07</v>
+      </c>
+      <c r="P38" s="22">
+        <f t="shared" si="7"/>
+        <v>1.3</v>
+      </c>
+      <c r="Q38" s="22">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="P38" s="1">
-        <f t="shared" si="9"/>
-        <v>1.28</v>
-      </c>
-      <c r="R38" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -3091,58 +3095,58 @@
         <v>186</v>
       </c>
       <c r="D39" s="14">
+        <f t="shared" si="13"/>
+        <v>3799.6887003778606</v>
+      </c>
+      <c r="E39" s="14">
+        <f t="shared" si="14"/>
+        <v>1899.8443501889303</v>
+      </c>
+      <c r="F39" s="14">
+        <f>F38*Q39</f>
+        <v>1696.1240334007841</v>
+      </c>
+      <c r="G39" s="14">
+        <f>G38*Q39</f>
+        <v>848.06201670039206</v>
+      </c>
+      <c r="H39" s="14">
         <f t="shared" si="15"/>
-        <v>3356.4559822717501</v>
-      </c>
-      <c r="E39" s="14">
+        <v>207.0651074996465</v>
+      </c>
+      <c r="I39" s="14">
         <f t="shared" si="16"/>
-        <v>1678.2279911358751</v>
-      </c>
-      <c r="F39" s="14">
+        <v>414.130214999293</v>
+      </c>
+      <c r="J39" s="14">
         <f t="shared" si="17"/>
-        <v>3118.7282499344014</v>
-      </c>
-      <c r="G39" s="14">
+        <v>124.23906449978787</v>
+      </c>
+      <c r="K39" s="14">
         <f t="shared" si="18"/>
-        <v>1559.3641249672007</v>
-      </c>
-      <c r="H39" s="14">
+        <v>269.18463974954045</v>
+      </c>
+      <c r="L39" s="14">
         <f t="shared" si="19"/>
-        <v>1160.5876659196815</v>
-      </c>
-      <c r="I39" s="14">
-        <f t="shared" si="20"/>
-        <v>2321.175331839363</v>
-      </c>
-      <c r="J39" s="14">
-        <f t="shared" si="21"/>
-        <v>696.35259955180913</v>
-      </c>
-      <c r="K39" s="14">
-        <f t="shared" si="22"/>
-        <v>1508.7639656955857</v>
-      </c>
-      <c r="L39" s="14">
-        <f t="shared" si="23"/>
-        <v>193.43127765328032</v>
+        <v>37.648201363572078</v>
       </c>
       <c r="M39" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O39" s="1">
+      <c r="O39" s="22">
+        <f t="shared" si="6"/>
+        <v>1.07</v>
+      </c>
+      <c r="P39" s="22">
+        <f t="shared" si="7"/>
+        <v>1.3</v>
+      </c>
+      <c r="Q39" s="22">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="P39" s="1">
-        <f t="shared" si="9"/>
-        <v>1.28</v>
-      </c>
-      <c r="R39" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -3153,58 +3157,58 @@
         <v>191</v>
       </c>
       <c r="D40" s="14">
+        <f t="shared" si="13"/>
+        <v>4939.5953104912187</v>
+      </c>
+      <c r="E40" s="14">
+        <f t="shared" si="14"/>
+        <v>2469.7976552456093</v>
+      </c>
+      <c r="F40" s="14">
+        <f>F39*Q40</f>
+        <v>1865.7364367408627</v>
+      </c>
+      <c r="G40" s="14">
+        <f>G39*Q40</f>
+        <v>932.86821837043135</v>
+      </c>
+      <c r="H40" s="14">
         <f t="shared" si="15"/>
-        <v>4296.2636573078398</v>
-      </c>
-      <c r="E40" s="14">
+        <v>221.55966502462178</v>
+      </c>
+      <c r="I40" s="14">
         <f t="shared" si="16"/>
-        <v>2148.1318286539199</v>
-      </c>
-      <c r="F40" s="14">
+        <v>443.11933004924356</v>
+      </c>
+      <c r="J40" s="14">
         <f t="shared" si="17"/>
-        <v>3742.4738999212814</v>
-      </c>
-      <c r="G40" s="14">
+        <v>132.93579901477304</v>
+      </c>
+      <c r="K40" s="14">
         <f t="shared" si="18"/>
-        <v>1871.2369499606407</v>
-      </c>
-      <c r="H40" s="14">
+        <v>288.02756453200828</v>
+      </c>
+      <c r="L40" s="14">
         <f t="shared" si="19"/>
-        <v>1276.6464325116497</v>
-      </c>
-      <c r="I40" s="14">
-        <f t="shared" si="20"/>
-        <v>2553.2928650232993</v>
-      </c>
-      <c r="J40" s="14">
-        <f t="shared" si="21"/>
-        <v>765.98785950699016</v>
-      </c>
-      <c r="K40" s="14">
-        <f t="shared" si="22"/>
-        <v>1659.6403622651444</v>
-      </c>
-      <c r="L40" s="14">
-        <f t="shared" si="23"/>
-        <v>212.77440541860838</v>
+        <v>40.283575459022124</v>
       </c>
       <c r="M40" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O40" s="1">
+      <c r="O40" s="22">
+        <f t="shared" si="6"/>
+        <v>1.07</v>
+      </c>
+      <c r="P40" s="22">
+        <f t="shared" si="7"/>
+        <v>1.3</v>
+      </c>
+      <c r="Q40" s="22">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="P40" s="1">
-        <f t="shared" si="9"/>
-        <v>1.28</v>
-      </c>
-      <c r="R40" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -3215,58 +3219,58 @@
         <v>196</v>
       </c>
       <c r="D41" s="14">
+        <f t="shared" si="13"/>
+        <v>6421.4739036385845</v>
+      </c>
+      <c r="E41" s="14">
+        <f t="shared" si="14"/>
+        <v>3210.7369518192922</v>
+      </c>
+      <c r="F41" s="14">
+        <f>F40*Q41</f>
+        <v>2052.310080414949</v>
+      </c>
+      <c r="G41" s="14">
+        <f>G40*Q41</f>
+        <v>1026.1550402074745</v>
+      </c>
+      <c r="H41" s="14">
         <f t="shared" si="15"/>
-        <v>5499.217481354035</v>
-      </c>
-      <c r="E41" s="14">
+        <v>237.06884157634531</v>
+      </c>
+      <c r="I41" s="14">
         <f t="shared" si="16"/>
-        <v>2749.6087406770175</v>
-      </c>
-      <c r="F41" s="14">
+        <v>474.13768315269061</v>
+      </c>
+      <c r="J41" s="14">
         <f t="shared" si="17"/>
-        <v>4490.9686799055371</v>
-      </c>
-      <c r="G41" s="14">
+        <v>142.24130494580717</v>
+      </c>
+      <c r="K41" s="14">
         <f t="shared" si="18"/>
-        <v>2245.4843399527686</v>
-      </c>
-      <c r="H41" s="14">
+        <v>308.18949404924888</v>
+      </c>
+      <c r="L41" s="14">
         <f t="shared" si="19"/>
-        <v>1404.3110757628147</v>
-      </c>
-      <c r="I41" s="14">
-        <f t="shared" si="20"/>
-        <v>2808.6221515256293</v>
-      </c>
-      <c r="J41" s="14">
-        <f t="shared" si="21"/>
-        <v>842.5866454576892</v>
-      </c>
-      <c r="K41" s="14">
-        <f t="shared" si="22"/>
-        <v>1825.6043984916589</v>
-      </c>
-      <c r="L41" s="14">
-        <f t="shared" si="23"/>
-        <v>234.05184596046925</v>
+        <v>43.103425741153679</v>
       </c>
       <c r="M41" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O41" s="1">
+      <c r="O41" s="22">
+        <f t="shared" si="6"/>
+        <v>1.07</v>
+      </c>
+      <c r="P41" s="22">
+        <f t="shared" si="7"/>
+        <v>1.3</v>
+      </c>
+      <c r="Q41" s="22">
         <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="P41" s="1">
-        <f t="shared" si="9"/>
-        <v>1.28</v>
-      </c>
-      <c r="R41" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -3277,57 +3281,56 @@
         <v>201</v>
       </c>
       <c r="D42" s="15">
-        <f t="shared" ref="D42:D51" si="24">D41*P42</f>
-        <v>7038.998376133165</v>
+        <f t="shared" ref="D42:D51" si="20">D41*P42</f>
+        <v>8990.0634650940174</v>
       </c>
       <c r="E42" s="15">
-        <f t="shared" ref="E42:E51" si="25">E41*P42</f>
-        <v>3519.4991880665825</v>
+        <f t="shared" ref="E42:E51" si="21">E41*P42</f>
+        <v>4495.0317325470087</v>
       </c>
       <c r="F42" s="15">
-        <f t="shared" ref="F42:F51" si="26">F41*R42</f>
-        <v>5389.1624158866443</v>
+        <f>F41*Q42</f>
+        <v>2257.541088456444</v>
       </c>
       <c r="G42" s="15">
-        <f t="shared" ref="G42:G51" si="27">G41*R42</f>
-        <v>2694.5812079433222</v>
+        <f>G41*Q42</f>
+        <v>1128.770544228222</v>
       </c>
       <c r="H42" s="15">
-        <f t="shared" ref="H42:H51" si="28">H41*O42</f>
-        <v>1502.6128510662118</v>
+        <f t="shared" ref="H42:H50" si="22">H41*O42</f>
+        <v>251.29297207092603</v>
       </c>
       <c r="I42" s="15">
-        <f t="shared" ref="I42:I51" si="29">I41*O42</f>
-        <v>3005.2257021324235</v>
+        <f t="shared" ref="I42:I51" si="23">I41*O42</f>
+        <v>502.58594414185205</v>
       </c>
       <c r="J42" s="15">
-        <f t="shared" ref="J42:J51" si="30">J41*O42</f>
-        <v>901.56771063972747</v>
+        <f t="shared" ref="J42:J51" si="24">J41*O42</f>
+        <v>150.7757832425556</v>
       </c>
       <c r="K42" s="15">
-        <f t="shared" ref="K42:K51" si="31">K41*O42</f>
-        <v>1953.396706386075</v>
+        <f t="shared" ref="K42:K51" si="25">K41*O42</f>
+        <v>326.68086369220384</v>
       </c>
       <c r="L42" s="15">
-        <f t="shared" ref="L42:L51" si="32">L41*O42</f>
-        <v>250.4354751777021</v>
+        <f t="shared" ref="L42:L51" si="26">L41*O42</f>
+        <v>45.689631285622902</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O42" s="22">
-        <v>1.07</v>
-      </c>
-      <c r="P42" s="1">
-        <f t="shared" si="9"/>
-        <v>1.28</v>
-      </c>
-      <c r="R42" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O42" s="23">
+        <v>1.06</v>
+      </c>
+      <c r="P42" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="Q42" s="23">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -3338,58 +3341,58 @@
         <v>206</v>
       </c>
       <c r="D43" s="15">
+        <f t="shared" si="20"/>
+        <v>12586.088851131624</v>
+      </c>
+      <c r="E43" s="15">
+        <f t="shared" si="21"/>
+        <v>6293.0444255658122</v>
+      </c>
+      <c r="F43" s="15">
+        <f>F42*Q43</f>
+        <v>2483.2951973020886</v>
+      </c>
+      <c r="G43" s="15">
+        <f>G42*Q43</f>
+        <v>1241.6475986510443</v>
+      </c>
+      <c r="H43" s="15">
+        <f t="shared" si="22"/>
+        <v>266.37055039518162</v>
+      </c>
+      <c r="I43" s="15">
+        <f t="shared" si="23"/>
+        <v>532.74110079036325</v>
+      </c>
+      <c r="J43" s="15">
         <f t="shared" si="24"/>
-        <v>9009.9179214504511</v>
-      </c>
-      <c r="E43" s="15">
+        <v>159.82233023710896</v>
+      </c>
+      <c r="K43" s="15">
         <f t="shared" si="25"/>
-        <v>4504.9589607252256</v>
-      </c>
-      <c r="F43" s="15">
+        <v>346.28171551373612</v>
+      </c>
+      <c r="L43" s="15">
         <f t="shared" si="26"/>
-        <v>6466.9948990639732</v>
-      </c>
-      <c r="G43" s="15">
-        <f t="shared" si="27"/>
-        <v>3233.4974495319866</v>
-      </c>
-      <c r="H43" s="15">
-        <f t="shared" si="28"/>
-        <v>1607.7957506408468</v>
-      </c>
-      <c r="I43" s="15">
-        <f t="shared" si="29"/>
-        <v>3215.5915012816936</v>
-      </c>
-      <c r="J43" s="15">
-        <f t="shared" si="30"/>
-        <v>964.67745038450846</v>
-      </c>
-      <c r="K43" s="15">
-        <f t="shared" si="31"/>
-        <v>2090.1344758331006</v>
-      </c>
-      <c r="L43" s="15">
-        <f t="shared" si="32"/>
-        <v>267.96595844014126</v>
+        <v>48.431009162760276</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O43" s="1">
-        <f t="shared" si="8"/>
-        <v>1.07</v>
-      </c>
-      <c r="P43" s="1">
-        <f t="shared" si="9"/>
-        <v>1.28</v>
-      </c>
-      <c r="R43" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O43" s="22">
+        <f t="shared" si="6"/>
+        <v>1.06</v>
+      </c>
+      <c r="P43" s="22">
+        <f t="shared" si="7"/>
+        <v>1.4</v>
+      </c>
+      <c r="Q43" s="22">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -3400,58 +3403,58 @@
         <v>211</v>
       </c>
       <c r="D44" s="15">
+        <f t="shared" si="20"/>
+        <v>17620.524391584273</v>
+      </c>
+      <c r="E44" s="15">
+        <f t="shared" si="21"/>
+        <v>8810.2621957921365</v>
+      </c>
+      <c r="F44" s="15">
+        <f>F43*Q44</f>
+        <v>2731.6247170322977</v>
+      </c>
+      <c r="G44" s="15">
+        <f>G43*Q44</f>
+        <v>1365.8123585161488</v>
+      </c>
+      <c r="H44" s="15">
+        <f t="shared" si="22"/>
+        <v>282.35278341889256</v>
+      </c>
+      <c r="I44" s="15">
+        <f t="shared" si="23"/>
+        <v>564.70556683778511</v>
+      </c>
+      <c r="J44" s="15">
         <f t="shared" si="24"/>
-        <v>11532.694939456578</v>
-      </c>
-      <c r="E44" s="15">
+        <v>169.41167005133551</v>
+      </c>
+      <c r="K44" s="15">
         <f t="shared" si="25"/>
-        <v>5766.3474697282891</v>
-      </c>
-      <c r="F44" s="15">
+        <v>367.0586184445603</v>
+      </c>
+      <c r="L44" s="15">
         <f t="shared" si="26"/>
-        <v>7760.3938788767673</v>
-      </c>
-      <c r="G44" s="15">
-        <f t="shared" si="27"/>
-        <v>3880.1969394383837</v>
-      </c>
-      <c r="H44" s="15">
-        <f t="shared" si="28"/>
-        <v>1720.3414531857061</v>
-      </c>
-      <c r="I44" s="15">
-        <f t="shared" si="29"/>
-        <v>3440.6829063714122</v>
-      </c>
-      <c r="J44" s="15">
-        <f t="shared" si="30"/>
-        <v>1032.2048719114241</v>
-      </c>
-      <c r="K44" s="15">
-        <f t="shared" si="31"/>
-        <v>2236.4438891414179</v>
-      </c>
-      <c r="L44" s="15">
-        <f t="shared" si="32"/>
-        <v>286.72357553095117</v>
+        <v>51.336869712525896</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O44" s="1">
-        <f t="shared" si="8"/>
-        <v>1.07</v>
-      </c>
-      <c r="P44" s="1">
-        <f t="shared" si="9"/>
-        <v>1.28</v>
-      </c>
-      <c r="R44" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O44" s="22">
+        <f t="shared" si="6"/>
+        <v>1.06</v>
+      </c>
+      <c r="P44" s="22">
+        <f t="shared" si="7"/>
+        <v>1.4</v>
+      </c>
+      <c r="Q44" s="22">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -3462,58 +3465,58 @@
         <v>216</v>
       </c>
       <c r="D45" s="15">
+        <f t="shared" si="20"/>
+        <v>24668.73414821798</v>
+      </c>
+      <c r="E45" s="15">
+        <f t="shared" si="21"/>
+        <v>12334.36707410899</v>
+      </c>
+      <c r="F45" s="15">
+        <f>F44*Q45</f>
+        <v>3004.7871887355277</v>
+      </c>
+      <c r="G45" s="15">
+        <f>G44*Q45</f>
+        <v>1502.3935943677639</v>
+      </c>
+      <c r="H45" s="15">
+        <f t="shared" si="22"/>
+        <v>299.29395042402615</v>
+      </c>
+      <c r="I45" s="15">
+        <f t="shared" si="23"/>
+        <v>598.5879008480523</v>
+      </c>
+      <c r="J45" s="15">
         <f t="shared" si="24"/>
-        <v>14761.849522504421</v>
-      </c>
-      <c r="E45" s="15">
+        <v>179.57637025441565</v>
+      </c>
+      <c r="K45" s="15">
         <f t="shared" si="25"/>
-        <v>7380.9247612522104</v>
-      </c>
-      <c r="F45" s="15">
+        <v>389.08213555123393</v>
+      </c>
+      <c r="L45" s="15">
         <f t="shared" si="26"/>
-        <v>9312.4726546521197</v>
-      </c>
-      <c r="G45" s="15">
-        <f t="shared" si="27"/>
-        <v>4656.2363273260598</v>
-      </c>
-      <c r="H45" s="15">
-        <f t="shared" si="28"/>
-        <v>1840.7653549087056</v>
-      </c>
-      <c r="I45" s="15">
-        <f t="shared" si="29"/>
-        <v>3681.5307098174112</v>
-      </c>
-      <c r="J45" s="15">
-        <f t="shared" si="30"/>
-        <v>1104.459212945224</v>
-      </c>
-      <c r="K45" s="15">
-        <f t="shared" si="31"/>
-        <v>2392.9949613813174</v>
-      </c>
-      <c r="L45" s="15">
-        <f t="shared" si="32"/>
-        <v>306.79422581811775</v>
+        <v>54.417081895277455</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O45" s="1">
-        <f t="shared" si="8"/>
-        <v>1.07</v>
-      </c>
-      <c r="P45" s="1">
-        <f t="shared" si="9"/>
-        <v>1.28</v>
-      </c>
-      <c r="R45" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O45" s="22">
+        <f t="shared" si="6"/>
+        <v>1.06</v>
+      </c>
+      <c r="P45" s="22">
+        <f t="shared" si="7"/>
+        <v>1.4</v>
+      </c>
+      <c r="Q45" s="22">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -3524,58 +3527,58 @@
         <v>221</v>
       </c>
       <c r="D46" s="15">
+        <f t="shared" si="20"/>
+        <v>34536.227807505173</v>
+      </c>
+      <c r="E46" s="15">
+        <f t="shared" si="21"/>
+        <v>17268.113903752586</v>
+      </c>
+      <c r="F46" s="15">
+        <f>F45*Q46</f>
+        <v>3305.2659076090808</v>
+      </c>
+      <c r="G46" s="15">
+        <f>G45*Q46</f>
+        <v>1652.6329538045404</v>
+      </c>
+      <c r="H46" s="15">
+        <f t="shared" si="22"/>
+        <v>317.25158744946776</v>
+      </c>
+      <c r="I46" s="15">
+        <f t="shared" si="23"/>
+        <v>634.50317489893553</v>
+      </c>
+      <c r="J46" s="15">
         <f t="shared" si="24"/>
-        <v>18895.167388805658</v>
-      </c>
-      <c r="E46" s="15">
+        <v>190.35095246968061</v>
+      </c>
+      <c r="K46" s="15">
         <f t="shared" si="25"/>
-        <v>9447.5836944028288</v>
-      </c>
-      <c r="F46" s="15">
+        <v>412.427063684308</v>
+      </c>
+      <c r="L46" s="15">
         <f t="shared" si="26"/>
-        <v>11174.967185582544</v>
-      </c>
-      <c r="G46" s="15">
-        <f t="shared" si="27"/>
-        <v>5587.4835927912718</v>
-      </c>
-      <c r="H46" s="15">
-        <f t="shared" si="28"/>
-        <v>1969.6189297523151</v>
-      </c>
-      <c r="I46" s="15">
-        <f t="shared" si="29"/>
-        <v>3939.2378595046303</v>
-      </c>
-      <c r="J46" s="15">
-        <f t="shared" si="30"/>
-        <v>1181.7713578513897</v>
-      </c>
-      <c r="K46" s="15">
-        <f t="shared" si="31"/>
-        <v>2560.5046086780098</v>
-      </c>
-      <c r="L46" s="15">
-        <f t="shared" si="32"/>
-        <v>328.26982162538599</v>
+        <v>57.682106808994106</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O46" s="1">
-        <f t="shared" si="8"/>
-        <v>1.07</v>
-      </c>
-      <c r="P46" s="1">
-        <f t="shared" si="9"/>
-        <v>1.28</v>
-      </c>
-      <c r="R46" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O46" s="22">
+        <f t="shared" si="6"/>
+        <v>1.06</v>
+      </c>
+      <c r="P46" s="22">
+        <f t="shared" si="7"/>
+        <v>1.4</v>
+      </c>
+      <c r="Q46" s="22">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -3586,58 +3589,58 @@
         <v>226</v>
       </c>
       <c r="D47" s="15">
+        <f t="shared" si="20"/>
+        <v>48350.718930507239</v>
+      </c>
+      <c r="E47" s="15">
+        <f t="shared" si="21"/>
+        <v>24175.359465253619</v>
+      </c>
+      <c r="F47" s="15">
+        <f>F46*Q47</f>
+        <v>3635.7924983699891</v>
+      </c>
+      <c r="G47" s="15">
+        <f>G46*Q47</f>
+        <v>1817.8962491849945</v>
+      </c>
+      <c r="H47" s="15">
+        <f t="shared" si="22"/>
+        <v>336.28668269643583</v>
+      </c>
+      <c r="I47" s="15">
+        <f t="shared" si="23"/>
+        <v>672.57336539287166</v>
+      </c>
+      <c r="J47" s="15">
         <f t="shared" si="24"/>
-        <v>24185.814257671242</v>
-      </c>
-      <c r="E47" s="15">
+        <v>201.77200961786144</v>
+      </c>
+      <c r="K47" s="15">
         <f t="shared" si="25"/>
-        <v>12092.907128835621</v>
-      </c>
-      <c r="F47" s="15">
+        <v>437.17268750536653</v>
+      </c>
+      <c r="L47" s="15">
         <f t="shared" si="26"/>
-        <v>13409.960622699053</v>
-      </c>
-      <c r="G47" s="15">
-        <f t="shared" si="27"/>
-        <v>6704.9803113495263</v>
-      </c>
-      <c r="H47" s="15">
-        <f t="shared" si="28"/>
-        <v>2107.4922548349773</v>
-      </c>
-      <c r="I47" s="15">
-        <f t="shared" si="29"/>
-        <v>4214.9845096699546</v>
-      </c>
-      <c r="J47" s="15">
-        <f t="shared" si="30"/>
-        <v>1264.495352900987</v>
-      </c>
-      <c r="K47" s="15">
-        <f t="shared" si="31"/>
-        <v>2739.7399312854709</v>
-      </c>
-      <c r="L47" s="15">
-        <f t="shared" si="32"/>
-        <v>351.24870913916305</v>
+        <v>61.143033217533755</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O47" s="1">
-        <f t="shared" si="8"/>
-        <v>1.07</v>
-      </c>
-      <c r="P47" s="1">
-        <f t="shared" si="9"/>
-        <v>1.28</v>
-      </c>
-      <c r="R47" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O47" s="22">
+        <f t="shared" si="6"/>
+        <v>1.06</v>
+      </c>
+      <c r="P47" s="22">
+        <f t="shared" si="7"/>
+        <v>1.4</v>
+      </c>
+      <c r="Q47" s="22">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -3648,58 +3651,58 @@
         <v>231</v>
       </c>
       <c r="D48" s="15">
+        <f t="shared" si="20"/>
+        <v>67691.006502710137</v>
+      </c>
+      <c r="E48" s="15">
+        <f t="shared" si="21"/>
+        <v>33845.503251355069</v>
+      </c>
+      <c r="F48" s="15">
+        <f>F47*Q48</f>
+        <v>3999.3717482069883</v>
+      </c>
+      <c r="G48" s="15">
+        <f>G47*Q48</f>
+        <v>1999.6858741034941</v>
+      </c>
+      <c r="H48" s="15">
+        <f t="shared" si="22"/>
+        <v>356.46388365822202</v>
+      </c>
+      <c r="I48" s="15">
+        <f t="shared" si="23"/>
+        <v>712.92776731644403</v>
+      </c>
+      <c r="J48" s="15">
         <f t="shared" si="24"/>
-        <v>30957.84224981919</v>
-      </c>
-      <c r="E48" s="15">
+        <v>213.87833019493314</v>
+      </c>
+      <c r="K48" s="15">
         <f t="shared" si="25"/>
-        <v>15478.921124909595</v>
-      </c>
-      <c r="F48" s="15">
+        <v>463.40304875568853</v>
+      </c>
+      <c r="L48" s="15">
         <f t="shared" si="26"/>
-        <v>16091.952747238862</v>
-      </c>
-      <c r="G48" s="15">
-        <f t="shared" si="27"/>
-        <v>8045.9763736194309</v>
-      </c>
-      <c r="H48" s="15">
-        <f t="shared" si="28"/>
-        <v>2255.0167126734259</v>
-      </c>
-      <c r="I48" s="15">
-        <f t="shared" si="29"/>
-        <v>4510.0334253468518</v>
-      </c>
-      <c r="J48" s="15">
-        <f t="shared" si="30"/>
-        <v>1353.0100276040562</v>
-      </c>
-      <c r="K48" s="15">
-        <f t="shared" si="31"/>
-        <v>2931.5217264754542</v>
-      </c>
-      <c r="L48" s="15">
-        <f t="shared" si="32"/>
-        <v>375.83611877890451</v>
+        <v>64.811615210585785</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O48" s="1">
-        <f t="shared" si="8"/>
-        <v>1.07</v>
-      </c>
-      <c r="P48" s="1">
-        <f t="shared" si="9"/>
-        <v>1.28</v>
-      </c>
-      <c r="R48" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O48" s="22">
+        <f t="shared" si="6"/>
+        <v>1.06</v>
+      </c>
+      <c r="P48" s="22">
+        <f t="shared" si="7"/>
+        <v>1.4</v>
+      </c>
+      <c r="Q48" s="22">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -3710,58 +3713,58 @@
         <v>236</v>
       </c>
       <c r="D49" s="15">
+        <f t="shared" si="20"/>
+        <v>94767.409103794183</v>
+      </c>
+      <c r="E49" s="15">
+        <f t="shared" si="21"/>
+        <v>47383.704551897092</v>
+      </c>
+      <c r="F49" s="15">
+        <f>F48*Q49</f>
+        <v>4399.3089230276873</v>
+      </c>
+      <c r="G49" s="15">
+        <f>G48*Q49</f>
+        <v>2199.6544615138437</v>
+      </c>
+      <c r="H49" s="15">
+        <f t="shared" si="22"/>
+        <v>377.85171667771533</v>
+      </c>
+      <c r="I49" s="15">
+        <f t="shared" si="23"/>
+        <v>755.70343335543066</v>
+      </c>
+      <c r="J49" s="15">
         <f t="shared" si="24"/>
-        <v>39626.038079768565</v>
-      </c>
-      <c r="E49" s="15">
+        <v>226.71103000662913</v>
+      </c>
+      <c r="K49" s="15">
         <f t="shared" si="25"/>
-        <v>19813.019039884282</v>
-      </c>
-      <c r="F49" s="15">
+        <v>491.20723168102984</v>
+      </c>
+      <c r="L49" s="15">
         <f t="shared" si="26"/>
-        <v>19310.343296686635</v>
-      </c>
-      <c r="G49" s="15">
-        <f t="shared" si="27"/>
-        <v>9655.1716483433174</v>
-      </c>
-      <c r="H49" s="15">
-        <f t="shared" si="28"/>
-        <v>2412.8678825605657</v>
-      </c>
-      <c r="I49" s="15">
-        <f t="shared" si="29"/>
-        <v>4825.7357651211314</v>
-      </c>
-      <c r="J49" s="15">
-        <f t="shared" si="30"/>
-        <v>1447.7207295363403</v>
-      </c>
-      <c r="K49" s="15">
-        <f t="shared" si="31"/>
-        <v>3136.7282473287364</v>
-      </c>
-      <c r="L49" s="15">
-        <f t="shared" si="32"/>
-        <v>402.14464709342786</v>
+        <v>68.700312123220939</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O49" s="1">
-        <f t="shared" si="8"/>
-        <v>1.07</v>
-      </c>
-      <c r="P49" s="1">
-        <f t="shared" si="9"/>
-        <v>1.28</v>
-      </c>
-      <c r="R49" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O49" s="22">
+        <f t="shared" si="6"/>
+        <v>1.06</v>
+      </c>
+      <c r="P49" s="22">
+        <f t="shared" si="7"/>
+        <v>1.4</v>
+      </c>
+      <c r="Q49" s="22">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -3772,58 +3775,58 @@
         <v>241</v>
       </c>
       <c r="D50" s="15">
+        <f t="shared" si="20"/>
+        <v>132674.37274531185</v>
+      </c>
+      <c r="E50" s="15">
+        <f t="shared" si="21"/>
+        <v>66337.186372655924</v>
+      </c>
+      <c r="F50" s="15">
+        <f>F49*Q50</f>
+        <v>4839.2398153304566</v>
+      </c>
+      <c r="G50" s="15">
+        <f>G49*Q50</f>
+        <v>2419.6199076652283</v>
+      </c>
+      <c r="H50" s="15">
+        <f t="shared" si="22"/>
+        <v>400.52281967837826</v>
+      </c>
+      <c r="I50" s="15">
+        <f t="shared" si="23"/>
+        <v>801.04563935675651</v>
+      </c>
+      <c r="J50" s="15">
         <f t="shared" si="24"/>
-        <v>50721.328742103768</v>
-      </c>
-      <c r="E50" s="15">
+        <v>240.31369180702688</v>
+      </c>
+      <c r="K50" s="15">
         <f t="shared" si="25"/>
-        <v>25360.664371051884</v>
-      </c>
-      <c r="F50" s="15">
+        <v>520.67966558189164</v>
+      </c>
+      <c r="L50" s="15">
         <f t="shared" si="26"/>
-        <v>23172.41195602396</v>
-      </c>
-      <c r="G50" s="15">
-        <f t="shared" si="27"/>
-        <v>11586.20597801198</v>
-      </c>
-      <c r="H50" s="15">
-        <f t="shared" si="28"/>
-        <v>2581.7686343398054</v>
-      </c>
-      <c r="I50" s="15">
-        <f t="shared" si="29"/>
-        <v>5163.5372686796109</v>
-      </c>
-      <c r="J50" s="15">
-        <f t="shared" si="30"/>
-        <v>1549.0611806038842</v>
-      </c>
-      <c r="K50" s="15">
-        <f t="shared" si="31"/>
-        <v>3356.299224641748</v>
-      </c>
-      <c r="L50" s="15">
-        <f t="shared" si="32"/>
-        <v>430.29477238996782</v>
+        <v>72.822330850614193</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O50" s="1">
-        <f t="shared" si="8"/>
-        <v>1.07</v>
-      </c>
-      <c r="P50" s="1">
-        <f t="shared" si="9"/>
-        <v>1.28</v>
-      </c>
-      <c r="R50" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O50" s="22">
+        <f t="shared" si="6"/>
+        <v>1.06</v>
+      </c>
+      <c r="P50" s="22">
+        <f t="shared" si="7"/>
+        <v>1.4</v>
+      </c>
+      <c r="Q50" s="22">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -3834,58 +3837,58 @@
         <v>246</v>
       </c>
       <c r="D51" s="15">
+        <f t="shared" si="20"/>
+        <v>185744.12184343659</v>
+      </c>
+      <c r="E51" s="15">
+        <f t="shared" si="21"/>
+        <v>92872.060921718294</v>
+      </c>
+      <c r="F51" s="15">
+        <f>F50*Q51</f>
+        <v>5323.1637968635023</v>
+      </c>
+      <c r="G51" s="15">
+        <f>G50*Q51</f>
+        <v>2661.5818984317511</v>
+      </c>
+      <c r="H51" s="15">
+        <f>H50*O51</f>
+        <v>424.55418885908097</v>
+      </c>
+      <c r="I51" s="15">
+        <f t="shared" si="23"/>
+        <v>849.10837771816193</v>
+      </c>
+      <c r="J51" s="15">
         <f t="shared" si="24"/>
-        <v>64923.300789892826</v>
-      </c>
-      <c r="E51" s="15">
+        <v>254.7325133154485</v>
+      </c>
+      <c r="K51" s="15">
         <f t="shared" si="25"/>
-        <v>32461.650394946413</v>
-      </c>
-      <c r="F51" s="15">
+        <v>551.92044551680522</v>
+      </c>
+      <c r="L51" s="15">
         <f t="shared" si="26"/>
-        <v>27806.89434722875</v>
-      </c>
-      <c r="G51" s="15">
-        <f t="shared" si="27"/>
-        <v>13903.447173614375</v>
-      </c>
-      <c r="H51" s="15">
-        <f t="shared" si="28"/>
-        <v>2762.4924387435922</v>
-      </c>
-      <c r="I51" s="15">
-        <f t="shared" si="29"/>
-        <v>5524.9848774871843</v>
-      </c>
-      <c r="J51" s="15">
-        <f t="shared" si="30"/>
-        <v>1657.4954632461561</v>
-      </c>
-      <c r="K51" s="15">
-        <f t="shared" si="31"/>
-        <v>3591.2401703666706</v>
-      </c>
-      <c r="L51" s="15">
-        <f t="shared" si="32"/>
-        <v>460.41540645726559</v>
+        <v>77.191670701651049</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O51" s="1">
-        <f t="shared" si="8"/>
-        <v>1.07</v>
-      </c>
-      <c r="P51" s="1">
-        <f t="shared" si="9"/>
-        <v>1.28</v>
-      </c>
-      <c r="R51" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O51" s="22">
+        <f t="shared" si="6"/>
+        <v>1.06</v>
+      </c>
+      <c r="P51" s="22">
+        <f t="shared" si="7"/>
+        <v>1.4</v>
+      </c>
+      <c r="Q51" s="22">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -3896,57 +3899,55 @@
         <v>251</v>
       </c>
       <c r="D52" s="16">
-        <f t="shared" ref="D52:D61" si="33">D51*P52</f>
-        <v>83101.825011062814</v>
+        <f t="shared" ref="D52:D61" si="27">D51*P52</f>
+        <v>278616.18276515487</v>
       </c>
       <c r="E52" s="16">
-        <f t="shared" ref="E52:E61" si="34">E51*P52</f>
-        <v>41550.912505531407</v>
+        <f t="shared" ref="E52:E61" si="28">E51*P52</f>
+        <v>139308.09138257743</v>
       </c>
       <c r="F52" s="16">
-        <f t="shared" ref="F52:F61" si="35">F51*R52</f>
-        <v>33368.273216674497</v>
+        <f>F51*Q52</f>
+        <v>5589.3219867066773</v>
       </c>
       <c r="G52" s="16">
-        <f t="shared" ref="G52:G61" si="36">G51*R52</f>
-        <v>16684.136608337249</v>
+        <f>G51*Q52</f>
+        <v>2794.6609933533387</v>
       </c>
       <c r="H52" s="16">
-        <f t="shared" ref="H52:H61" si="37">H51*O52</f>
-        <v>2900.6170606807718</v>
+        <f t="shared" ref="H52:H61" si="29">H51*O52</f>
+        <v>445.78189830203502</v>
       </c>
       <c r="I52" s="16">
-        <f t="shared" ref="I52:I61" si="38">I51*O52</f>
-        <v>5801.2341213615437</v>
+        <f t="shared" ref="I52:I61" si="30">I51*O52</f>
+        <v>891.56379660407003</v>
       </c>
       <c r="J52" s="16">
-        <f t="shared" ref="J52:J61" si="39">J51*O52</f>
-        <v>1740.3702364084641</v>
+        <f t="shared" ref="J52:J61" si="31">J51*O52</f>
+        <v>267.46913898122091</v>
       </c>
       <c r="K52" s="16">
-        <f t="shared" ref="K52:K61" si="40">K51*O52</f>
-        <v>3770.8021788850042</v>
+        <f t="shared" ref="K52:K61" si="32">K51*O52</f>
+        <v>579.51646779264547</v>
       </c>
       <c r="L52" s="16">
-        <f t="shared" ref="L52:L61" si="41">L51*O52</f>
-        <v>483.4361767801289</v>
+        <f t="shared" ref="L52:L61" si="33">L51*O52</f>
+        <v>81.051254236733598</v>
       </c>
       <c r="M52" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O52" s="22">
+      <c r="O52" s="23">
         <v>1.05</v>
       </c>
-      <c r="P52" s="1">
-        <f t="shared" si="9"/>
-        <v>1.28</v>
-      </c>
-      <c r="R52" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P52" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="Q52" s="23">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -3957,58 +3958,58 @@
         <v>256</v>
       </c>
       <c r="D53" s="16">
+        <f t="shared" si="27"/>
+        <v>417924.2741477323</v>
+      </c>
+      <c r="E53" s="16">
+        <f t="shared" si="28"/>
+        <v>208962.13707386615</v>
+      </c>
+      <c r="F53" s="16">
+        <f>F52*Q53</f>
+        <v>5868.7880860420119</v>
+      </c>
+      <c r="G53" s="16">
+        <f>G52*Q53</f>
+        <v>2934.3940430210059</v>
+      </c>
+      <c r="H53" s="16">
+        <f t="shared" si="29"/>
+        <v>468.07099321713679</v>
+      </c>
+      <c r="I53" s="16">
+        <f t="shared" si="30"/>
+        <v>936.14198643427358</v>
+      </c>
+      <c r="J53" s="16">
+        <f t="shared" si="31"/>
+        <v>280.84259593028196</v>
+      </c>
+      <c r="K53" s="16">
+        <f t="shared" si="32"/>
+        <v>608.49229118227777</v>
+      </c>
+      <c r="L53" s="16">
         <f t="shared" si="33"/>
-        <v>106370.33601416041</v>
-      </c>
-      <c r="E53" s="16">
-        <f t="shared" si="34"/>
-        <v>53185.168007080203</v>
-      </c>
-      <c r="F53" s="16">
-        <f t="shared" si="35"/>
-        <v>40041.927860009397</v>
-      </c>
-      <c r="G53" s="16">
-        <f t="shared" si="36"/>
-        <v>20020.963930004698</v>
-      </c>
-      <c r="H53" s="16">
-        <f t="shared" si="37"/>
-        <v>3045.6479137148103</v>
-      </c>
-      <c r="I53" s="16">
-        <f t="shared" si="38"/>
-        <v>6091.2958274296207</v>
-      </c>
-      <c r="J53" s="16">
-        <f t="shared" si="39"/>
-        <v>1827.3887482288874</v>
-      </c>
-      <c r="K53" s="16">
-        <f t="shared" si="40"/>
-        <v>3959.3422878292545</v>
-      </c>
-      <c r="L53" s="16">
-        <f t="shared" si="41"/>
-        <v>507.60798561913538</v>
+        <v>85.103816948570284</v>
       </c>
       <c r="M53" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O53" s="1">
-        <f t="shared" si="8"/>
+      <c r="O53" s="22">
+        <f t="shared" si="6"/>
         <v>1.05</v>
       </c>
-      <c r="P53" s="1">
-        <f t="shared" si="9"/>
-        <v>1.28</v>
-      </c>
-      <c r="R53" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P53" s="22">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q53" s="22">
+        <f t="shared" si="8"/>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -4019,58 +4020,58 @@
         <v>261</v>
       </c>
       <c r="D54" s="16">
+        <f t="shared" si="27"/>
+        <v>626886.41122159851</v>
+      </c>
+      <c r="E54" s="16">
+        <f t="shared" si="28"/>
+        <v>313443.20561079925</v>
+      </c>
+      <c r="F54" s="16">
+        <f>F53*Q54</f>
+        <v>6162.227490344113</v>
+      </c>
+      <c r="G54" s="16">
+        <f>G53*Q54</f>
+        <v>3081.1137451720565</v>
+      </c>
+      <c r="H54" s="16">
+        <f t="shared" si="29"/>
+        <v>491.47454287799366</v>
+      </c>
+      <c r="I54" s="16">
+        <f t="shared" si="30"/>
+        <v>982.94908575598731</v>
+      </c>
+      <c r="J54" s="16">
+        <f t="shared" si="31"/>
+        <v>294.88472572679609</v>
+      </c>
+      <c r="K54" s="16">
+        <f t="shared" si="32"/>
+        <v>638.9169057413917</v>
+      </c>
+      <c r="L54" s="16">
         <f t="shared" si="33"/>
-        <v>136154.03009812531</v>
-      </c>
-      <c r="E54" s="16">
-        <f t="shared" si="34"/>
-        <v>68077.015049062655</v>
-      </c>
-      <c r="F54" s="16">
-        <f t="shared" si="35"/>
-        <v>48050.313432011273</v>
-      </c>
-      <c r="G54" s="16">
-        <f t="shared" si="36"/>
-        <v>24025.156716005637</v>
-      </c>
-      <c r="H54" s="16">
-        <f t="shared" si="37"/>
-        <v>3197.9303094005509</v>
-      </c>
-      <c r="I54" s="16">
-        <f t="shared" si="38"/>
-        <v>6395.8606188011017</v>
-      </c>
-      <c r="J54" s="16">
-        <f t="shared" si="39"/>
-        <v>1918.7581856403319</v>
-      </c>
-      <c r="K54" s="16">
-        <f t="shared" si="40"/>
-        <v>4157.3094022207169</v>
-      </c>
-      <c r="L54" s="16">
-        <f t="shared" si="41"/>
-        <v>532.98838490009211</v>
+        <v>89.359007795998807</v>
       </c>
       <c r="M54" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O54" s="1">
-        <f t="shared" si="8"/>
+      <c r="O54" s="22">
+        <f t="shared" si="6"/>
         <v>1.05</v>
       </c>
-      <c r="P54" s="1">
-        <f t="shared" si="9"/>
-        <v>1.28</v>
-      </c>
-      <c r="R54" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P54" s="22">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q54" s="22">
+        <f t="shared" si="8"/>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -4081,58 +4082,58 @@
         <v>266</v>
       </c>
       <c r="D55" s="16">
+        <f t="shared" si="27"/>
+        <v>940329.61683239776</v>
+      </c>
+      <c r="E55" s="16">
+        <f t="shared" si="28"/>
+        <v>470164.80841619888</v>
+      </c>
+      <c r="F55" s="16">
+        <f>F54*Q55</f>
+        <v>6470.3388648613191</v>
+      </c>
+      <c r="G55" s="16">
+        <f>G54*Q55</f>
+        <v>3235.1694324306595</v>
+      </c>
+      <c r="H55" s="16">
+        <f t="shared" si="29"/>
+        <v>516.04827002189336</v>
+      </c>
+      <c r="I55" s="16">
+        <f t="shared" si="30"/>
+        <v>1032.0965400437867</v>
+      </c>
+      <c r="J55" s="16">
+        <f t="shared" si="31"/>
+        <v>309.62896201313589</v>
+      </c>
+      <c r="K55" s="16">
+        <f t="shared" si="32"/>
+        <v>670.86275102846128</v>
+      </c>
+      <c r="L55" s="16">
         <f t="shared" si="33"/>
-        <v>174277.15852560039</v>
-      </c>
-      <c r="E55" s="16">
-        <f t="shared" si="34"/>
-        <v>87138.579262800195</v>
-      </c>
-      <c r="F55" s="16">
-        <f t="shared" si="35"/>
-        <v>57660.376118413529</v>
-      </c>
-      <c r="G55" s="16">
-        <f t="shared" si="36"/>
-        <v>28830.188059206765</v>
-      </c>
-      <c r="H55" s="16">
-        <f t="shared" si="37"/>
-        <v>3357.8268248705785</v>
-      </c>
-      <c r="I55" s="16">
-        <f t="shared" si="38"/>
-        <v>6715.6536497411571</v>
-      </c>
-      <c r="J55" s="16">
-        <f t="shared" si="39"/>
-        <v>2014.6960949223487</v>
-      </c>
-      <c r="K55" s="16">
-        <f t="shared" si="40"/>
-        <v>4365.1748723317532</v>
-      </c>
-      <c r="L55" s="16">
-        <f t="shared" si="41"/>
-        <v>559.63780414509677</v>
+        <v>93.826958185798745</v>
       </c>
       <c r="M55" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O55" s="1">
-        <f t="shared" si="8"/>
+      <c r="O55" s="22">
+        <f t="shared" si="6"/>
         <v>1.05</v>
       </c>
-      <c r="P55" s="1">
-        <f t="shared" si="9"/>
-        <v>1.28</v>
-      </c>
-      <c r="R55" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P55" s="22">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q55" s="22">
+        <f t="shared" si="8"/>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -4143,58 +4144,58 @@
         <v>271</v>
       </c>
       <c r="D56" s="16">
+        <f t="shared" si="27"/>
+        <v>1410494.4252485966</v>
+      </c>
+      <c r="E56" s="16">
+        <f t="shared" si="28"/>
+        <v>705247.21262429829</v>
+      </c>
+      <c r="F56" s="16">
+        <f>F55*Q56</f>
+        <v>6793.8558081043857</v>
+      </c>
+      <c r="G56" s="16">
+        <f>G55*Q56</f>
+        <v>3396.9279040521928</v>
+      </c>
+      <c r="H56" s="16">
+        <f t="shared" si="29"/>
+        <v>541.85068352298811</v>
+      </c>
+      <c r="I56" s="16">
+        <f t="shared" si="30"/>
+        <v>1083.7013670459762</v>
+      </c>
+      <c r="J56" s="16">
+        <f t="shared" si="31"/>
+        <v>325.11041011379268</v>
+      </c>
+      <c r="K56" s="16">
+        <f t="shared" si="32"/>
+        <v>704.40588857988439</v>
+      </c>
+      <c r="L56" s="16">
         <f t="shared" si="33"/>
-        <v>223074.76291276849</v>
-      </c>
-      <c r="E56" s="16">
-        <f t="shared" si="34"/>
-        <v>111537.38145638425</v>
-      </c>
-      <c r="F56" s="16">
-        <f t="shared" si="35"/>
-        <v>69192.451342096232</v>
-      </c>
-      <c r="G56" s="16">
-        <f t="shared" si="36"/>
-        <v>34596.225671048116</v>
-      </c>
-      <c r="H56" s="16">
-        <f t="shared" si="37"/>
-        <v>3525.7181661141076</v>
-      </c>
-      <c r="I56" s="16">
-        <f t="shared" si="38"/>
-        <v>7051.4363322282152</v>
-      </c>
-      <c r="J56" s="16">
-        <f t="shared" si="39"/>
-        <v>2115.4308996684663</v>
-      </c>
-      <c r="K56" s="16">
-        <f t="shared" si="40"/>
-        <v>4583.433615948341</v>
-      </c>
-      <c r="L56" s="16">
-        <f t="shared" si="41"/>
-        <v>587.61969435235164</v>
+        <v>98.51830609508869</v>
       </c>
       <c r="M56" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O56" s="1">
-        <f t="shared" si="8"/>
+      <c r="O56" s="22">
+        <f t="shared" si="6"/>
         <v>1.05</v>
       </c>
-      <c r="P56" s="1">
-        <f t="shared" si="9"/>
-        <v>1.28</v>
-      </c>
-      <c r="R56" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P56" s="22">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q56" s="22">
+        <f t="shared" si="8"/>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -4205,58 +4206,58 @@
         <v>276</v>
       </c>
       <c r="D57" s="16">
+        <f t="shared" si="27"/>
+        <v>2115741.6378728948</v>
+      </c>
+      <c r="E57" s="16">
+        <f t="shared" si="28"/>
+        <v>1057870.8189364474</v>
+      </c>
+      <c r="F57" s="16">
+        <f>F56*Q57</f>
+        <v>7133.5485985096057</v>
+      </c>
+      <c r="G57" s="16">
+        <f>G56*Q57</f>
+        <v>3566.7742992548028</v>
+      </c>
+      <c r="H57" s="16">
+        <f t="shared" si="29"/>
+        <v>568.94321769913756</v>
+      </c>
+      <c r="I57" s="16">
+        <f t="shared" si="30"/>
+        <v>1137.8864353982751</v>
+      </c>
+      <c r="J57" s="16">
+        <f t="shared" si="31"/>
+        <v>341.36593061948236</v>
+      </c>
+      <c r="K57" s="16">
+        <f t="shared" si="32"/>
+        <v>739.62618300887868</v>
+      </c>
+      <c r="L57" s="16">
         <f t="shared" si="33"/>
-        <v>285535.69652834366</v>
-      </c>
-      <c r="E57" s="16">
-        <f t="shared" si="34"/>
-        <v>142767.84826417183</v>
-      </c>
-      <c r="F57" s="16">
-        <f t="shared" si="35"/>
-        <v>83030.941610515481</v>
-      </c>
-      <c r="G57" s="16">
-        <f t="shared" si="36"/>
-        <v>41515.470805257741</v>
-      </c>
-      <c r="H57" s="16">
-        <f t="shared" si="37"/>
-        <v>3702.0040744198132</v>
-      </c>
-      <c r="I57" s="16">
-        <f t="shared" si="38"/>
-        <v>7404.0081488396263</v>
-      </c>
-      <c r="J57" s="16">
-        <f t="shared" si="39"/>
-        <v>2221.2024446518899</v>
-      </c>
-      <c r="K57" s="16">
-        <f t="shared" si="40"/>
-        <v>4812.6052967457581</v>
-      </c>
-      <c r="L57" s="16">
-        <f t="shared" si="41"/>
-        <v>617.00067906996924</v>
+        <v>103.44422139984313</v>
       </c>
       <c r="M57" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O57" s="1">
-        <f t="shared" si="8"/>
+      <c r="O57" s="22">
+        <f t="shared" si="6"/>
         <v>1.05</v>
       </c>
-      <c r="P57" s="1">
-        <f t="shared" si="9"/>
-        <v>1.28</v>
-      </c>
-      <c r="R57" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P57" s="22">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q57" s="22">
+        <f t="shared" si="8"/>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -4267,58 +4268,58 @@
         <v>281</v>
       </c>
       <c r="D58" s="16">
+        <f t="shared" si="27"/>
+        <v>3173612.4568093419</v>
+      </c>
+      <c r="E58" s="16">
+        <f t="shared" si="28"/>
+        <v>1586806.228404671</v>
+      </c>
+      <c r="F58" s="16">
+        <f>F57*Q58</f>
+        <v>7490.2260284350859</v>
+      </c>
+      <c r="G58" s="16">
+        <f>G57*Q58</f>
+        <v>3745.113014217543</v>
+      </c>
+      <c r="H58" s="16">
+        <f t="shared" si="29"/>
+        <v>597.39037858409449</v>
+      </c>
+      <c r="I58" s="16">
+        <f t="shared" si="30"/>
+        <v>1194.780757168189</v>
+      </c>
+      <c r="J58" s="16">
+        <f t="shared" si="31"/>
+        <v>358.43422715045648</v>
+      </c>
+      <c r="K58" s="16">
+        <f t="shared" si="32"/>
+        <v>776.60749215932265</v>
+      </c>
+      <c r="L58" s="16">
         <f t="shared" si="33"/>
-        <v>365485.6915562799</v>
-      </c>
-      <c r="E58" s="16">
-        <f t="shared" si="34"/>
-        <v>182742.84577813995</v>
-      </c>
-      <c r="F58" s="16">
-        <f t="shared" si="35"/>
-        <v>99637.129932618569</v>
-      </c>
-      <c r="G58" s="16">
-        <f t="shared" si="36"/>
-        <v>49818.564966309285</v>
-      </c>
-      <c r="H58" s="16">
-        <f t="shared" si="37"/>
-        <v>3887.1042781408041</v>
-      </c>
-      <c r="I58" s="16">
-        <f t="shared" si="38"/>
-        <v>7774.2085562816083</v>
-      </c>
-      <c r="J58" s="16">
-        <f t="shared" si="39"/>
-        <v>2332.2625668844844</v>
-      </c>
-      <c r="K58" s="16">
-        <f t="shared" si="40"/>
-        <v>5053.2355615830465</v>
-      </c>
-      <c r="L58" s="16">
-        <f t="shared" si="41"/>
-        <v>647.85071302346773</v>
+        <v>108.61643246983529</v>
       </c>
       <c r="M58" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O58" s="1">
-        <f t="shared" si="8"/>
+      <c r="O58" s="22">
+        <f t="shared" si="6"/>
         <v>1.05</v>
       </c>
-      <c r="P58" s="1">
-        <f t="shared" si="9"/>
-        <v>1.28</v>
-      </c>
-      <c r="R58" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P58" s="22">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q58" s="22">
+        <f t="shared" si="8"/>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -4329,58 +4330,58 @@
         <v>286</v>
       </c>
       <c r="D59" s="16">
+        <f t="shared" si="27"/>
+        <v>4760418.6852140129</v>
+      </c>
+      <c r="E59" s="16">
+        <f t="shared" si="28"/>
+        <v>2380209.3426070064</v>
+      </c>
+      <c r="F59" s="16">
+        <f>F58*Q59</f>
+        <v>7864.7373298568409</v>
+      </c>
+      <c r="G59" s="16">
+        <f>G58*Q59</f>
+        <v>3932.3686649284205</v>
+      </c>
+      <c r="H59" s="16">
+        <f t="shared" si="29"/>
+        <v>627.25989751329928</v>
+      </c>
+      <c r="I59" s="16">
+        <f t="shared" si="30"/>
+        <v>1254.5197950265986</v>
+      </c>
+      <c r="J59" s="16">
+        <f t="shared" si="31"/>
+        <v>376.35593850797932</v>
+      </c>
+      <c r="K59" s="16">
+        <f t="shared" si="32"/>
+        <v>815.43786676728882</v>
+      </c>
+      <c r="L59" s="16">
         <f t="shared" si="33"/>
-        <v>467821.68519203831</v>
-      </c>
-      <c r="E59" s="16">
-        <f t="shared" si="34"/>
-        <v>233910.84259601915</v>
-      </c>
-      <c r="F59" s="16">
-        <f t="shared" si="35"/>
-        <v>119564.55591914228</v>
-      </c>
-      <c r="G59" s="16">
-        <f t="shared" si="36"/>
-        <v>59782.27795957114</v>
-      </c>
-      <c r="H59" s="16">
-        <f t="shared" si="37"/>
-        <v>4081.4594920478444</v>
-      </c>
-      <c r="I59" s="16">
-        <f t="shared" si="38"/>
-        <v>8162.9189840956888</v>
-      </c>
-      <c r="J59" s="16">
-        <f t="shared" si="39"/>
-        <v>2448.8756952287085</v>
-      </c>
-      <c r="K59" s="16">
-        <f t="shared" si="40"/>
-        <v>5305.8973396621986</v>
-      </c>
-      <c r="L59" s="16">
-        <f t="shared" si="41"/>
-        <v>680.24324867464111</v>
+        <v>114.04725409332706</v>
       </c>
       <c r="M59" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O59" s="1">
-        <f t="shared" si="8"/>
+      <c r="O59" s="22">
+        <f t="shared" si="6"/>
         <v>1.05</v>
       </c>
-      <c r="P59" s="1">
-        <f t="shared" si="9"/>
-        <v>1.28</v>
-      </c>
-      <c r="R59" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P59" s="22">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q59" s="22">
+        <f t="shared" si="8"/>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -4391,58 +4392,58 @@
         <v>291</v>
       </c>
       <c r="D60" s="16">
+        <f t="shared" si="27"/>
+        <v>7140628.0278210193</v>
+      </c>
+      <c r="E60" s="16">
+        <f t="shared" si="28"/>
+        <v>3570314.0139105096</v>
+      </c>
+      <c r="F60" s="16">
+        <f>F59*Q60</f>
+        <v>8257.9741963496836</v>
+      </c>
+      <c r="G60" s="16">
+        <f>G59*Q60</f>
+        <v>4128.9870981748418</v>
+      </c>
+      <c r="H60" s="16">
+        <f t="shared" si="29"/>
+        <v>658.62289238896426</v>
+      </c>
+      <c r="I60" s="16">
+        <f t="shared" si="30"/>
+        <v>1317.2457847779285</v>
+      </c>
+      <c r="J60" s="16">
+        <f t="shared" si="31"/>
+        <v>395.17373543337828</v>
+      </c>
+      <c r="K60" s="16">
+        <f t="shared" si="32"/>
+        <v>856.20976010565334</v>
+      </c>
+      <c r="L60" s="16">
         <f t="shared" si="33"/>
-        <v>598811.75704580906</v>
-      </c>
-      <c r="E60" s="16">
-        <f t="shared" si="34"/>
-        <v>299405.87852290453</v>
-      </c>
-      <c r="F60" s="16">
-        <f t="shared" si="35"/>
-        <v>143477.46710297072</v>
-      </c>
-      <c r="G60" s="16">
-        <f t="shared" si="36"/>
-        <v>71738.733551485362</v>
-      </c>
-      <c r="H60" s="16">
-        <f t="shared" si="37"/>
-        <v>4285.5324666502365</v>
-      </c>
-      <c r="I60" s="16">
-        <f t="shared" si="38"/>
-        <v>8571.0649333004731</v>
-      </c>
-      <c r="J60" s="16">
-        <f t="shared" si="39"/>
-        <v>2571.3194799901439</v>
-      </c>
-      <c r="K60" s="16">
-        <f t="shared" si="40"/>
-        <v>5571.1922066453089</v>
-      </c>
-      <c r="L60" s="16">
-        <f t="shared" si="41"/>
-        <v>714.25541110837321</v>
+        <v>119.74961679799341</v>
       </c>
       <c r="M60" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O60" s="1">
-        <f t="shared" si="8"/>
+      <c r="O60" s="22">
+        <f t="shared" si="6"/>
         <v>1.05</v>
       </c>
-      <c r="P60" s="1">
-        <f t="shared" si="9"/>
-        <v>1.28</v>
-      </c>
-      <c r="R60" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P60" s="22">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q60" s="22">
+        <f t="shared" si="8"/>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -4453,55 +4454,55 @@
         <v>296</v>
       </c>
       <c r="D61" s="16">
+        <f t="shared" si="27"/>
+        <v>10710942.041731529</v>
+      </c>
+      <c r="E61" s="16">
+        <f t="shared" si="28"/>
+        <v>5355471.0208657645</v>
+      </c>
+      <c r="F61" s="16">
+        <f>F60*Q61</f>
+        <v>8670.8729061671675</v>
+      </c>
+      <c r="G61" s="16">
+        <f>G60*Q61</f>
+        <v>4335.4364530835837</v>
+      </c>
+      <c r="H61" s="16">
+        <f t="shared" si="29"/>
+        <v>691.55403700841248</v>
+      </c>
+      <c r="I61" s="16">
+        <f t="shared" si="30"/>
+        <v>1383.108074016825</v>
+      </c>
+      <c r="J61" s="16">
+        <f t="shared" si="31"/>
+        <v>414.9324222050472</v>
+      </c>
+      <c r="K61" s="16">
+        <f t="shared" si="32"/>
+        <v>899.020248110936</v>
+      </c>
+      <c r="L61" s="16">
         <f t="shared" si="33"/>
-        <v>766479.04901863565</v>
-      </c>
-      <c r="E61" s="16">
-        <f t="shared" si="34"/>
-        <v>383239.52450931782</v>
-      </c>
-      <c r="F61" s="16">
-        <f t="shared" si="35"/>
-        <v>172172.96052356486</v>
-      </c>
-      <c r="G61" s="16">
-        <f t="shared" si="36"/>
-        <v>86086.480261782432</v>
-      </c>
-      <c r="H61" s="16">
-        <f t="shared" si="37"/>
-        <v>4499.8090899827484</v>
-      </c>
-      <c r="I61" s="16">
-        <f t="shared" si="38"/>
-        <v>8999.6181799654969</v>
-      </c>
-      <c r="J61" s="16">
-        <f t="shared" si="39"/>
-        <v>2699.8854539896511</v>
-      </c>
-      <c r="K61" s="16">
-        <f t="shared" si="40"/>
-        <v>5849.7518169775749</v>
-      </c>
-      <c r="L61" s="16">
-        <f t="shared" si="41"/>
-        <v>749.96818166379194</v>
+        <v>125.73709763789309</v>
       </c>
       <c r="M61" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O61" s="1">
-        <f t="shared" si="8"/>
+      <c r="O61" s="22">
+        <f t="shared" si="6"/>
         <v>1.05</v>
       </c>
-      <c r="P61" s="1">
-        <f t="shared" si="9"/>
-        <v>1.28</v>
-      </c>
-      <c r="R61" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
+      <c r="P61" s="22">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q61" s="22">
+        <f t="shared" si="8"/>
+        <v>1.05</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
